--- a/Option_pricing.xlsx
+++ b/Option_pricing.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\D\UMD\Projects\Options Pricing project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E6284D6-C862-4013-852A-739010DBFBEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24538299-AF85-4432-B907-94C8D5BCF6FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11295" activeTab="2" xr2:uid="{8F5190EA-BBDE-43FC-B5C7-9B82F28BE91C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{8F5190EA-BBDE-43FC-B5C7-9B82F28BE91C}"/>
   </bookViews>
   <sheets>
     <sheet name="Black&amp;Scholes Model" sheetId="1" r:id="rId1"/>
     <sheet name="Binomial model" sheetId="3" r:id="rId2"/>
     <sheet name="Monte carlo european" sheetId="4" r:id="rId3"/>
-    <sheet name="SPY data" sheetId="2" r:id="rId4"/>
+    <sheet name="Monte carlo Asian" sheetId="5" r:id="rId4"/>
+    <sheet name="SPY data" sheetId="2" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="132">
   <si>
     <t>Contract Name</t>
   </si>
@@ -393,6 +394,48 @@
   </si>
   <si>
     <t>Discounted Price (Put)</t>
+  </si>
+  <si>
+    <t>Average stock price (Arithmetic mean)</t>
+  </si>
+  <si>
+    <t>Average stock price (Geometric mean)</t>
+  </si>
+  <si>
+    <t>Options Payoff (call) A</t>
+  </si>
+  <si>
+    <t>Option Payoff (Put) G</t>
+  </si>
+  <si>
+    <t>Option Payoff (Put) A</t>
+  </si>
+  <si>
+    <t>Option Payoff (Call) G</t>
+  </si>
+  <si>
+    <t>Average Payoff (Call) A</t>
+  </si>
+  <si>
+    <t>Average Payoff (Put) A</t>
+  </si>
+  <si>
+    <t>Average Payoff (Call) G</t>
+  </si>
+  <si>
+    <t>Average Payoff (Put) G</t>
+  </si>
+  <si>
+    <t>Discounted Price (Call) A</t>
+  </si>
+  <si>
+    <t>Discounted Price (Put) A</t>
+  </si>
+  <si>
+    <t>Discounted Price (Call) G</t>
+  </si>
+  <si>
+    <t>Discounted Price (Put) G</t>
   </si>
 </sst>
 </file>
@@ -919,19 +962,19 @@
                   <c:v>606.78</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>605.56272448336028</c:v>
+                  <c:v>610.33430861673321</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>612.93157022086109</c:v>
+                  <c:v>619.22669545311055</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>632.17067114795475</c:v>
+                  <c:v>616.48006716632847</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>633.85513704360051</c:v>
+                  <c:v>627.79216393234083</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>626.411678567016</c:v>
+                  <c:v>639.56842717738755</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -979,19 +1022,19 @@
                   <c:v>606.78</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>608.09686910360244</c:v>
+                  <c:v>610.84094195095656</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>609.51602692315328</c:v>
+                  <c:v>611.36013088405468</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>615.84450630615027</c:v>
+                  <c:v>614.07536498598176</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>612.60012317157555</c:v>
+                  <c:v>618.71790457671273</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>608.39147839384157</c:v>
+                  <c:v>625.23443873724159</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1039,19 +1082,19 @@
                   <c:v>606.78</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>597.81374925230114</c:v>
+                  <c:v>623.47484255868312</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>593.41621154854477</c:v>
+                  <c:v>614.95457161931085</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>595.05249535472365</c:v>
+                  <c:v>608.82685882710177</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>602.83553791564839</c:v>
+                  <c:v>610.38836394915779</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>604.61269418569088</c:v>
+                  <c:v>622.14314090490905</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1099,19 +1142,19 @@
                   <c:v>606.78</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>603.0354926433115</c:v>
+                  <c:v>613.05301046498346</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>603.11599531241052</c:v>
+                  <c:v>622.9723143133192</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>599.79484790169442</c:v>
+                  <c:v>639.36906098787802</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>597.62944295106604</c:v>
+                  <c:v>641.28616427014811</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>599.62753345810506</c:v>
+                  <c:v>652.07649173708683</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1159,19 +1202,19 @@
                   <c:v>606.78</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>624.7296338951586</c:v>
+                  <c:v>618.05820949737108</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>644.47649892184165</c:v>
+                  <c:v>615.99142809242323</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>652.03640656857806</c:v>
+                  <c:v>609.46201534047634</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>661.60765551934855</c:v>
+                  <c:v>604.38610035129352</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>667.7101798407507</c:v>
+                  <c:v>604.64681928624896</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1219,19 +1262,19 @@
                   <c:v>606.78</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>599.18605216855212</c:v>
+                  <c:v>609.02585858656232</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>608.17353439715475</c:v>
+                  <c:v>600.43622161408018</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>606.61671781441896</c:v>
+                  <c:v>592.84999638292913</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>604.40052375126811</c:v>
+                  <c:v>578.78885856025249</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>608.98355170626417</c:v>
+                  <c:v>579.84451144331297</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1281,19 +1324,19 @@
                   <c:v>606.78</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>607.08691747400496</c:v>
+                  <c:v>605.87719154438685</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>619.3942406895037</c:v>
+                  <c:v>615.71626440863315</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>610.73983462033971</c:v>
+                  <c:v>616.58258485958311</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>612.83450870299851</c:v>
+                  <c:v>636.45758005719949</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>605.78421293500082</c:v>
+                  <c:v>621.63959165011852</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1343,19 +1386,19 @@
                   <c:v>606.78</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>611.74935301053756</c:v>
+                  <c:v>602.42733069763835</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>615.37684298891895</c:v>
+                  <c:v>609.61143348383689</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>611.49004756274337</c:v>
+                  <c:v>614.58279970211368</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>617.65908170021737</c:v>
+                  <c:v>605.57582545249193</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>621.36244729068983</c:v>
+                  <c:v>607.13690445952432</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1405,19 +1448,19 @@
                   <c:v>606.78</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>607.99835428805397</c:v>
+                  <c:v>600.34162864359939</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>612.24156934736868</c:v>
+                  <c:v>604.36990584109572</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>603.70672429704803</c:v>
+                  <c:v>599.39662459977239</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>594.60389710564243</c:v>
+                  <c:v>600.53150893190661</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>603.70627711328723</c:v>
+                  <c:v>599.55585800123924</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1467,19 +1510,19 @@
                   <c:v>606.78</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>628.59490313371816</c:v>
+                  <c:v>607.82662020162218</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>632.77096319423083</c:v>
+                  <c:v>591.34146129679095</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>623.33128512130088</c:v>
+                  <c:v>593.44429091045959</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>616.30220998140931</c:v>
+                  <c:v>600.21763648736862</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>610.77116428042177</c:v>
+                  <c:v>587.39173141549611</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1529,19 +1572,19 @@
                   <c:v>606.78</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>604.65142309735165</c:v>
+                  <c:v>611.17384727947081</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>599.2185163474303</c:v>
+                  <c:v>614.36919460736692</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>585.61949226691547</c:v>
+                  <c:v>617.49894506167198</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>584.6411281986459</c:v>
+                  <c:v>614.67140655828644</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>584.11087299087774</c:v>
+                  <c:v>607.60518092447285</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1591,19 +1634,19 @@
                   <c:v>606.78</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>583.00175500634464</c:v>
+                  <c:v>602.96959813181729</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>585.93056511186035</c:v>
+                  <c:v>602.04151608440918</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>585.55003504802221</c:v>
+                  <c:v>609.79293122259821</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>577.61270054452552</c:v>
+                  <c:v>608.40219639552879</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>568.52481631543014</c:v>
+                  <c:v>611.36406815601242</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1654,19 +1697,19 @@
                   <c:v>606.78</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>613.38847443107682</c:v>
+                  <c:v>622.96784484927639</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>607.81744524711894</c:v>
+                  <c:v>628.96886079597562</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>587.44830040835291</c:v>
+                  <c:v>639.96804588339762</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>594.05905753623369</c:v>
+                  <c:v>661.64582728285563</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>583.98226771123552</c:v>
+                  <c:v>668.88631560274871</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1717,19 +1760,19 @@
                   <c:v>606.78</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>618.24873902049546</c:v>
+                  <c:v>597.78885531379626</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>622.75526597498947</c:v>
+                  <c:v>606.54977075907959</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>610.73369853285249</c:v>
+                  <c:v>592.49830140708968</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>610.47407650927994</c:v>
+                  <c:v>579.98381388225323</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>631.45356133467703</c:v>
+                  <c:v>588.86248830241152</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1780,19 +1823,19 @@
                   <c:v>606.78</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>613.92027131724933</c:v>
+                  <c:v>604.87014110672578</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>597.9133136672134</c:v>
+                  <c:v>615.93326386472802</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>601.19446406968166</c:v>
+                  <c:v>592.60632650457751</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>608.80981897209381</c:v>
+                  <c:v>594.73199981057599</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>610.13239677430681</c:v>
+                  <c:v>589.56175332231498</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1843,19 +1886,19 @@
                   <c:v>606.78</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>602.67539530189254</c:v>
+                  <c:v>629.31523249298652</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>604.76289448001307</c:v>
+                  <c:v>623.15301552130006</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>594.2818334551323</c:v>
+                  <c:v>628.65747740980203</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>593.47732667735806</c:v>
+                  <c:v>629.70921185315387</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>598.1945584611542</c:v>
+                  <c:v>622.52569790221742</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1906,19 +1949,19 @@
                   <c:v>606.78</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>604.1374439981239</c:v>
+                  <c:v>623.31986658385972</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>605.79308965859502</c:v>
+                  <c:v>613.9723796799185</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>612.27242673302271</c:v>
+                  <c:v>629.22444058123733</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>612.4102493021752</c:v>
+                  <c:v>609.04509091635202</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>607.37515634890417</c:v>
+                  <c:v>596.71990328697893</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1969,19 +2012,19 @@
                   <c:v>606.78</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>612.30502009078418</c:v>
+                  <c:v>615.5103564543947</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>626.24130029996002</c:v>
+                  <c:v>605.24291131169252</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>628.95682855893983</c:v>
+                  <c:v>591.65542827730451</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>633.13598098772991</c:v>
+                  <c:v>584.8299509157788</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>622.1886339771487</c:v>
+                  <c:v>582.37191121390015</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2031,19 +2074,19 @@
                   <c:v>606.78</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>611.73461716440022</c:v>
+                  <c:v>603.35676418713479</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>607.57909478930549</c:v>
+                  <c:v>591.53200324087902</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>606.42688830734642</c:v>
+                  <c:v>580.49484804066662</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>601.2881127935982</c:v>
+                  <c:v>578.78831017417281</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>590.11005057543787</c:v>
+                  <c:v>583.68788660971597</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2093,19 +2136,19 @@
                   <c:v>606.78</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>623.07190732187223</c:v>
+                  <c:v>602.34965602584759</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>624.71104269757961</c:v>
+                  <c:v>589.5162324334126</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>626.20666786384731</c:v>
+                  <c:v>588.71719064865999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>636.70976404743192</c:v>
+                  <c:v>585.89417933712934</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>634.40884182200159</c:v>
+                  <c:v>589.47194535001404</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2114,6 +2157,1510 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000013-039E-4A72-A6BA-3F1A2E3B1B77}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="432121120"/>
+        <c:axId val="432128800"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="432121120"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="432128800"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="432128800"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="432121120"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Simulated stock using GBM</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Monte carlo Asian'!$S$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Simulation 1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Monte carlo Asian'!$S$2:$S$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>606.78</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>600.36593525621299</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>591.92443288947118</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>599.62272671270068</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>591.50888457377516</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>599.41306195598088</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0DDC-45B6-AAE1-C0F0393ADDA6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Monte carlo Asian'!$T$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Simulation 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Monte carlo Asian'!$T$2:$T$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>606.78</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>600.30481134681384</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>610.30446607139675</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>615.49064552376251</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>625.98619463286661</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>636.34259723682544</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0DDC-45B6-AAE1-C0F0393ADDA6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Monte carlo Asian'!$U$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Simulation 3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Monte carlo Asian'!$U$2:$U$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>606.78</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>600.05442459084179</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>592.11996261583545</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>590.4056369600986</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>592.36268931664165</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>596.4409466089669</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-0DDC-45B6-AAE1-C0F0393ADDA6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Monte carlo Asian'!$V$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Simulation 4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Monte carlo Asian'!$V$2:$V$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>606.78</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>619.08503788841892</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>609.13569053143783</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>631.20982646795198</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>622.1183543183846</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>615.30712860368817</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-0DDC-45B6-AAE1-C0F0393ADDA6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Monte carlo Asian'!$W$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Simulation 5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Monte carlo Asian'!$W$2:$W$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>606.78</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>598.17095123296212</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>592.23503319224574</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>596.04155107123279</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>606.32290808255391</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>612.29959422540742</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-0DDC-45B6-AAE1-C0F0393ADDA6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Monte carlo Asian'!$X$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Simulation 6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Monte carlo Asian'!$X$2:$X$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>606.78</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>602.74303153424637</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>610.361252688185</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>617.1082522797642</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>610.30494623182142</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>609.51798445471002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-0DDC-45B6-AAE1-C0F0393ADDA6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Monte carlo Asian'!$Y$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Simulation 7</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Monte carlo Asian'!$Y$2:$Y$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>606.78</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>596.98419230473507</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>585.37857244769498</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>587.51096572963525</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>605.38300821184896</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>605.99732595580156</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-0DDC-45B6-AAE1-C0F0393ADDA6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Monte carlo Asian'!$Z$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Simulation 8</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Monte carlo Asian'!$Z$2:$Z$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>606.78</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>601.02497956098455</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>593.66874548080409</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>586.50559660151634</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>598.00071080246823</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>604.86158534215576</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-0DDC-45B6-AAE1-C0F0393ADDA6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Monte carlo Asian'!$AA$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Simulation 9</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Monte carlo Asian'!$AA$2:$AA$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>606.78</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>611.92478168966193</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>609.24372596379499</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>604.12779919768741</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>608.09892332841389</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>622.00640700563531</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-0DDC-45B6-AAE1-C0F0393ADDA6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Monte carlo Asian'!$AB$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Simulation 10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Monte carlo Asian'!$AB$2:$AB$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>606.78</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>613.336330822577</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>613.92136382165597</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>626.79746543075441</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>624.00274729278533</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>624.25284602544616</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-0DDC-45B6-AAE1-C0F0393ADDA6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="10"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Monte carlo Asian'!$AC$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Simulation 11</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Monte carlo Asian'!$AC$2:$AC$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>606.78</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>605.77171157332975</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>616.61794668512005</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>619.17235344524522</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>613.69931851967715</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>604.33438404364119</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-0DDC-45B6-AAE1-C0F0393ADDA6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="11"/>
+          <c:order val="11"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Monte carlo Asian'!$AD$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Simulation 12</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Monte carlo Asian'!$AD$2:$AD$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>606.78</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>608.84741046385193</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>602.72833891905395</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>594.40002345664288</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>603.05477148394812</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>609.84261173630784</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000B-0DDC-45B6-AAE1-C0F0393ADDA6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="12"/>
+          <c:order val="12"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Monte carlo Asian'!$AE$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Simulation 13</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Monte carlo Asian'!$AE$2:$AE$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>606.78</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>600.89705036537907</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>593.28183582140525</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>596.26760265463213</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>595.86934064452362</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>603.30092636018435</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000C-0DDC-45B6-AAE1-C0F0393ADDA6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="13"/>
+          <c:order val="13"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Monte carlo Asian'!$AF$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Simulation 14</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Monte carlo Asian'!$AF$2:$AF$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>606.78</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>615.31473648597637</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>613.72982420227856</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>615.61847793966081</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>610.18075187990235</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>613.54263796766679</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000D-0DDC-45B6-AAE1-C0F0393ADDA6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="14"/>
+          <c:order val="14"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Monte carlo Asian'!$AG$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Simulation 15</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Monte carlo Asian'!$AG$2:$AG$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>606.78</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>616.26487958640735</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>615.15511061281586</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>611.86763998793765</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>605.11812042354211</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>608.57267562269385</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000E-0DDC-45B6-AAE1-C0F0393ADDA6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="15"/>
+          <c:order val="15"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Monte carlo Asian'!$AH$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Simulation 16</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Monte carlo Asian'!$AH$2:$AH$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>606.78</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>600.95580708831699</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>596.61932399774844</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>590.33561839386891</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>586.07023932972254</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>587.44465559889682</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000F-0DDC-45B6-AAE1-C0F0393ADDA6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="16"/>
+          <c:order val="16"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Monte carlo Asian'!$AI$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Simulation 17</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Monte carlo Asian'!$AI$2:$AI$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>606.78</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>611.35798480718381</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>621.87787993698294</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>621.60723900675362</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>629.92383803577366</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>624.00909205365019</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000010-0DDC-45B6-AAE1-C0F0393ADDA6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="17"/>
+          <c:order val="17"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Monte carlo Asian'!$AJ$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Simulation 18</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Monte carlo Asian'!$AJ$2:$AJ$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>606.78</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>606.76006943745949</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>614.26567051388531</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>614.96092210694258</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>604.3818456149213</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>610.18148352986486</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000011-0DDC-45B6-AAE1-C0F0393ADDA6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="18"/>
+          <c:order val="18"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Monte carlo Asian'!$AK$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Simulation 19</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Monte carlo Asian'!$AK$2:$AK$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>606.78</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>617.70596583109375</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>623.31441277739873</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>618.14983826989499</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>607.55326961195362</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>603.78961418440224</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000012-0DDC-45B6-AAE1-C0F0393ADDA6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="19"/>
+          <c:order val="19"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Monte carlo Asian'!$AL$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Simulation 20</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Monte carlo Asian'!$AL$2:$AL$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>606.78</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>585.98793379733286</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>591.38518160608078</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>594.64448984619969</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>604.67077523365276</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>617.88788515238252</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000013-0DDC-45B6-AAE1-C0F0393ADDA6}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2352,7 +3899,563 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3403,6 +5506,93 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>102871</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>183817</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>175960</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49217E4B-8B92-4683-9139-1B8A1BBF28C9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="102871" y="6536992"/>
+          <a:ext cx="5154929" cy="2659143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>19049</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FE2123B-996B-4E7E-9FBF-16CCDC23A06B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -7700,7 +9890,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A54A3764-02BE-4C05-A97F-1F77CA9F1690}">
   <dimension ref="A1:AL252"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="K2" workbookViewId="0">
       <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
@@ -7954,83 +10144,83 @@
       </c>
       <c r="S3" s="45">
         <f ca="1">S2*EXP(($O$2-0.5*$O$3*$O$3)*$R$3+ SQRT($R$3)*$O$3*_xlfn.NORM.S.INV(RAND()))</f>
-        <v>605.56272448336028</v>
+        <v>610.33430861673321</v>
       </c>
       <c r="T3" s="45">
         <f t="shared" ref="S3:AB7" ca="1" si="1">T2*EXP(($O$2-0.5*$O$3*$O$3)*$R$3+ SQRT($R$3)*$O$3*_xlfn.NORM.S.INV(RAND()))</f>
-        <v>608.09686910360244</v>
+        <v>610.84094195095656</v>
       </c>
       <c r="U3" s="45">
         <f t="shared" ca="1" si="1"/>
-        <v>597.81374925230114</v>
+        <v>623.47484255868312</v>
       </c>
       <c r="V3" s="45">
         <f t="shared" ca="1" si="1"/>
-        <v>603.0354926433115</v>
+        <v>613.05301046498346</v>
       </c>
       <c r="W3" s="45">
         <f t="shared" ca="1" si="1"/>
-        <v>624.7296338951586</v>
+        <v>618.05820949737108</v>
       </c>
       <c r="X3" s="45">
         <f t="shared" ca="1" si="1"/>
-        <v>599.18605216855212</v>
+        <v>609.02585858656232</v>
       </c>
       <c r="Y3" s="45">
         <f t="shared" ca="1" si="1"/>
-        <v>607.08691747400496</v>
+        <v>605.87719154438685</v>
       </c>
       <c r="Z3" s="45">
         <f t="shared" ca="1" si="1"/>
-        <v>611.74935301053756</v>
+        <v>602.42733069763835</v>
       </c>
       <c r="AA3" s="45">
         <f t="shared" ca="1" si="1"/>
-        <v>607.99835428805397</v>
+        <v>600.34162864359939</v>
       </c>
       <c r="AB3" s="45">
         <f t="shared" ca="1" si="1"/>
-        <v>628.59490313371816</v>
+        <v>607.82662020162218</v>
       </c>
       <c r="AC3" s="45">
         <f t="shared" ref="AC3:AL7" ca="1" si="2">AC2*EXP(($O$2-0.5*$O$3*$O$3)*$R$3+ SQRT($R$3)*$O$3*_xlfn.NORM.S.INV(RAND()))</f>
-        <v>604.65142309735165</v>
+        <v>611.17384727947081</v>
       </c>
       <c r="AD3" s="45">
         <f t="shared" ca="1" si="2"/>
-        <v>583.00175500634464</v>
+        <v>602.96959813181729</v>
       </c>
       <c r="AE3" s="45">
         <f t="shared" ca="1" si="2"/>
-        <v>613.38847443107682</v>
+        <v>622.96784484927639</v>
       </c>
       <c r="AF3" s="45">
         <f t="shared" ca="1" si="2"/>
-        <v>618.24873902049546</v>
+        <v>597.78885531379626</v>
       </c>
       <c r="AG3" s="45">
         <f t="shared" ca="1" si="2"/>
-        <v>613.92027131724933</v>
+        <v>604.87014110672578</v>
       </c>
       <c r="AH3" s="45">
         <f t="shared" ca="1" si="2"/>
-        <v>602.67539530189254</v>
+        <v>629.31523249298652</v>
       </c>
       <c r="AI3" s="45">
         <f t="shared" ca="1" si="2"/>
-        <v>604.1374439981239</v>
+        <v>623.31986658385972</v>
       </c>
       <c r="AJ3" s="45">
         <f t="shared" ca="1" si="2"/>
-        <v>612.30502009078418</v>
+        <v>615.5103564543947</v>
       </c>
       <c r="AK3" s="45">
         <f t="shared" ca="1" si="2"/>
-        <v>611.73461716440022</v>
+        <v>603.35676418713479</v>
       </c>
       <c r="AL3" s="45">
         <f t="shared" ca="1" si="2"/>
-        <v>623.07190732187223</v>
+        <v>602.34965602584759</v>
       </c>
     </row>
     <row r="4" spans="1:38" x14ac:dyDescent="0.25">
@@ -8074,83 +10264,83 @@
       </c>
       <c r="S4" s="45">
         <f t="shared" ca="1" si="1"/>
-        <v>612.93157022086109</v>
+        <v>619.22669545311055</v>
       </c>
       <c r="T4" s="45">
         <f t="shared" ca="1" si="1"/>
-        <v>609.51602692315328</v>
+        <v>611.36013088405468</v>
       </c>
       <c r="U4" s="45">
         <f t="shared" ca="1" si="1"/>
-        <v>593.41621154854477</v>
+        <v>614.95457161931085</v>
       </c>
       <c r="V4" s="45">
         <f t="shared" ca="1" si="1"/>
-        <v>603.11599531241052</v>
+        <v>622.9723143133192</v>
       </c>
       <c r="W4" s="45">
         <f t="shared" ca="1" si="1"/>
-        <v>644.47649892184165</v>
+        <v>615.99142809242323</v>
       </c>
       <c r="X4" s="45">
         <f t="shared" ca="1" si="1"/>
-        <v>608.17353439715475</v>
+        <v>600.43622161408018</v>
       </c>
       <c r="Y4" s="45">
         <f t="shared" ca="1" si="1"/>
-        <v>619.3942406895037</v>
+        <v>615.71626440863315</v>
       </c>
       <c r="Z4" s="45">
         <f t="shared" ca="1" si="1"/>
-        <v>615.37684298891895</v>
+        <v>609.61143348383689</v>
       </c>
       <c r="AA4" s="45">
         <f t="shared" ca="1" si="1"/>
-        <v>612.24156934736868</v>
+        <v>604.36990584109572</v>
       </c>
       <c r="AB4" s="45">
         <f t="shared" ca="1" si="1"/>
-        <v>632.77096319423083</v>
+        <v>591.34146129679095</v>
       </c>
       <c r="AC4" s="45">
         <f t="shared" ca="1" si="2"/>
-        <v>599.2185163474303</v>
+        <v>614.36919460736692</v>
       </c>
       <c r="AD4" s="45">
         <f t="shared" ca="1" si="2"/>
-        <v>585.93056511186035</v>
+        <v>602.04151608440918</v>
       </c>
       <c r="AE4" s="45">
         <f t="shared" ca="1" si="2"/>
-        <v>607.81744524711894</v>
+        <v>628.96886079597562</v>
       </c>
       <c r="AF4" s="45">
         <f t="shared" ca="1" si="2"/>
-        <v>622.75526597498947</v>
+        <v>606.54977075907959</v>
       </c>
       <c r="AG4" s="45">
         <f t="shared" ca="1" si="2"/>
-        <v>597.9133136672134</v>
+        <v>615.93326386472802</v>
       </c>
       <c r="AH4" s="45">
         <f t="shared" ca="1" si="2"/>
-        <v>604.76289448001307</v>
+        <v>623.15301552130006</v>
       </c>
       <c r="AI4" s="45">
         <f t="shared" ca="1" si="2"/>
-        <v>605.79308965859502</v>
+        <v>613.9723796799185</v>
       </c>
       <c r="AJ4" s="45">
         <f t="shared" ca="1" si="2"/>
-        <v>626.24130029996002</v>
+        <v>605.24291131169252</v>
       </c>
       <c r="AK4" s="45">
         <f t="shared" ca="1" si="2"/>
-        <v>607.57909478930549</v>
+        <v>591.53200324087902</v>
       </c>
       <c r="AL4" s="45">
         <f t="shared" ca="1" si="2"/>
-        <v>624.71104269757961</v>
+        <v>589.5162324334126</v>
       </c>
     </row>
     <row r="5" spans="1:38" x14ac:dyDescent="0.25">
@@ -8186,83 +10376,83 @@
       </c>
       <c r="S5" s="45">
         <f ca="1">S4*EXP(($O$2-0.5*$O$3*$O$3)*$R$3+ SQRT($R$3)*$O$3*_xlfn.NORM.S.INV(RAND()))</f>
-        <v>632.17067114795475</v>
+        <v>616.48006716632847</v>
       </c>
       <c r="T5" s="45">
         <f t="shared" ca="1" si="1"/>
-        <v>615.84450630615027</v>
+        <v>614.07536498598176</v>
       </c>
       <c r="U5" s="45">
         <f t="shared" ca="1" si="1"/>
-        <v>595.05249535472365</v>
+        <v>608.82685882710177</v>
       </c>
       <c r="V5" s="45">
         <f t="shared" ca="1" si="1"/>
-        <v>599.79484790169442</v>
+        <v>639.36906098787802</v>
       </c>
       <c r="W5" s="45">
         <f t="shared" ca="1" si="1"/>
-        <v>652.03640656857806</v>
+        <v>609.46201534047634</v>
       </c>
       <c r="X5" s="45">
         <f t="shared" ca="1" si="1"/>
-        <v>606.61671781441896</v>
+        <v>592.84999638292913</v>
       </c>
       <c r="Y5" s="45">
         <f t="shared" ca="1" si="1"/>
-        <v>610.73983462033971</v>
+        <v>616.58258485958311</v>
       </c>
       <c r="Z5" s="45">
         <f t="shared" ca="1" si="1"/>
-        <v>611.49004756274337</v>
+        <v>614.58279970211368</v>
       </c>
       <c r="AA5" s="45">
         <f t="shared" ca="1" si="1"/>
-        <v>603.70672429704803</v>
+        <v>599.39662459977239</v>
       </c>
       <c r="AB5" s="45">
         <f t="shared" ca="1" si="1"/>
-        <v>623.33128512130088</v>
+        <v>593.44429091045959</v>
       </c>
       <c r="AC5" s="45">
         <f t="shared" ca="1" si="2"/>
-        <v>585.61949226691547</v>
+        <v>617.49894506167198</v>
       </c>
       <c r="AD5" s="45">
         <f t="shared" ca="1" si="2"/>
-        <v>585.55003504802221</v>
+        <v>609.79293122259821</v>
       </c>
       <c r="AE5" s="45">
         <f t="shared" ca="1" si="2"/>
-        <v>587.44830040835291</v>
+        <v>639.96804588339762</v>
       </c>
       <c r="AF5" s="45">
         <f t="shared" ca="1" si="2"/>
-        <v>610.73369853285249</v>
+        <v>592.49830140708968</v>
       </c>
       <c r="AG5" s="45">
         <f t="shared" ca="1" si="2"/>
-        <v>601.19446406968166</v>
+        <v>592.60632650457751</v>
       </c>
       <c r="AH5" s="45">
         <f t="shared" ca="1" si="2"/>
-        <v>594.2818334551323</v>
+        <v>628.65747740980203</v>
       </c>
       <c r="AI5" s="45">
         <f t="shared" ca="1" si="2"/>
-        <v>612.27242673302271</v>
+        <v>629.22444058123733</v>
       </c>
       <c r="AJ5" s="45">
         <f t="shared" ca="1" si="2"/>
-        <v>628.95682855893983</v>
+        <v>591.65542827730451</v>
       </c>
       <c r="AK5" s="45">
         <f t="shared" ca="1" si="2"/>
-        <v>606.42688830734642</v>
+        <v>580.49484804066662</v>
       </c>
       <c r="AL5" s="45">
         <f t="shared" ca="1" si="2"/>
-        <v>626.20666786384731</v>
+        <v>588.71719064865999</v>
       </c>
     </row>
     <row r="6" spans="1:38" x14ac:dyDescent="0.25">
@@ -8298,83 +10488,83 @@
       </c>
       <c r="S6" s="45">
         <f t="shared" ca="1" si="1"/>
-        <v>633.85513704360051</v>
+        <v>627.79216393234083</v>
       </c>
       <c r="T6" s="45">
         <f t="shared" ca="1" si="1"/>
-        <v>612.60012317157555</v>
+        <v>618.71790457671273</v>
       </c>
       <c r="U6" s="45">
         <f t="shared" ca="1" si="1"/>
-        <v>602.83553791564839</v>
+        <v>610.38836394915779</v>
       </c>
       <c r="V6" s="45">
         <f t="shared" ca="1" si="1"/>
-        <v>597.62944295106604</v>
+        <v>641.28616427014811</v>
       </c>
       <c r="W6" s="45">
         <f t="shared" ca="1" si="1"/>
-        <v>661.60765551934855</v>
+        <v>604.38610035129352</v>
       </c>
       <c r="X6" s="45">
         <f t="shared" ca="1" si="1"/>
-        <v>604.40052375126811</v>
+        <v>578.78885856025249</v>
       </c>
       <c r="Y6" s="45">
         <f t="shared" ca="1" si="1"/>
-        <v>612.83450870299851</v>
+        <v>636.45758005719949</v>
       </c>
       <c r="Z6" s="45">
         <f t="shared" ca="1" si="1"/>
-        <v>617.65908170021737</v>
+        <v>605.57582545249193</v>
       </c>
       <c r="AA6" s="45">
         <f t="shared" ca="1" si="1"/>
-        <v>594.60389710564243</v>
+        <v>600.53150893190661</v>
       </c>
       <c r="AB6" s="45">
         <f t="shared" ca="1" si="1"/>
-        <v>616.30220998140931</v>
+        <v>600.21763648736862</v>
       </c>
       <c r="AC6" s="45">
         <f t="shared" ca="1" si="2"/>
-        <v>584.6411281986459</v>
+        <v>614.67140655828644</v>
       </c>
       <c r="AD6" s="45">
         <f t="shared" ca="1" si="2"/>
-        <v>577.61270054452552</v>
+        <v>608.40219639552879</v>
       </c>
       <c r="AE6" s="45">
         <f t="shared" ca="1" si="2"/>
-        <v>594.05905753623369</v>
+        <v>661.64582728285563</v>
       </c>
       <c r="AF6" s="45">
         <f t="shared" ca="1" si="2"/>
-        <v>610.47407650927994</v>
+        <v>579.98381388225323</v>
       </c>
       <c r="AG6" s="45">
         <f t="shared" ca="1" si="2"/>
-        <v>608.80981897209381</v>
+        <v>594.73199981057599</v>
       </c>
       <c r="AH6" s="45">
         <f t="shared" ca="1" si="2"/>
-        <v>593.47732667735806</v>
+        <v>629.70921185315387</v>
       </c>
       <c r="AI6" s="45">
         <f t="shared" ca="1" si="2"/>
-        <v>612.4102493021752</v>
+        <v>609.04509091635202</v>
       </c>
       <c r="AJ6" s="45">
         <f t="shared" ca="1" si="2"/>
-        <v>633.13598098772991</v>
+        <v>584.8299509157788</v>
       </c>
       <c r="AK6" s="45">
         <f t="shared" ca="1" si="2"/>
-        <v>601.2881127935982</v>
+        <v>578.78831017417281</v>
       </c>
       <c r="AL6" s="45">
         <f t="shared" ca="1" si="2"/>
-        <v>636.70976404743192</v>
+        <v>585.89417933712934</v>
       </c>
     </row>
     <row r="7" spans="1:38" x14ac:dyDescent="0.25">
@@ -8405,83 +10595,83 @@
       </c>
       <c r="S7" s="45">
         <f t="shared" ca="1" si="1"/>
-        <v>626.411678567016</v>
+        <v>639.56842717738755</v>
       </c>
       <c r="T7" s="45">
         <f t="shared" ca="1" si="1"/>
-        <v>608.39147839384157</v>
+        <v>625.23443873724159</v>
       </c>
       <c r="U7" s="45">
         <f t="shared" ca="1" si="1"/>
-        <v>604.61269418569088</v>
+        <v>622.14314090490905</v>
       </c>
       <c r="V7" s="45">
         <f t="shared" ca="1" si="1"/>
-        <v>599.62753345810506</v>
+        <v>652.07649173708683</v>
       </c>
       <c r="W7" s="45">
         <f t="shared" ca="1" si="1"/>
-        <v>667.7101798407507</v>
+        <v>604.64681928624896</v>
       </c>
       <c r="X7" s="45">
         <f t="shared" ca="1" si="1"/>
-        <v>608.98355170626417</v>
+        <v>579.84451144331297</v>
       </c>
       <c r="Y7" s="45">
         <f t="shared" ca="1" si="1"/>
-        <v>605.78421293500082</v>
+        <v>621.63959165011852</v>
       </c>
       <c r="Z7" s="45">
         <f t="shared" ca="1" si="1"/>
-        <v>621.36244729068983</v>
+        <v>607.13690445952432</v>
       </c>
       <c r="AA7" s="45">
         <f t="shared" ca="1" si="1"/>
-        <v>603.70627711328723</v>
+        <v>599.55585800123924</v>
       </c>
       <c r="AB7" s="45">
         <f t="shared" ca="1" si="1"/>
-        <v>610.77116428042177</v>
+        <v>587.39173141549611</v>
       </c>
       <c r="AC7" s="45">
         <f t="shared" ca="1" si="2"/>
-        <v>584.11087299087774</v>
+        <v>607.60518092447285</v>
       </c>
       <c r="AD7" s="45">
         <f t="shared" ca="1" si="2"/>
-        <v>568.52481631543014</v>
+        <v>611.36406815601242</v>
       </c>
       <c r="AE7" s="45">
         <f t="shared" ca="1" si="2"/>
-        <v>583.98226771123552</v>
+        <v>668.88631560274871</v>
       </c>
       <c r="AF7" s="45">
         <f t="shared" ca="1" si="2"/>
-        <v>631.45356133467703</v>
+        <v>588.86248830241152</v>
       </c>
       <c r="AG7" s="45">
         <f t="shared" ca="1" si="2"/>
-        <v>610.13239677430681</v>
+        <v>589.56175332231498</v>
       </c>
       <c r="AH7" s="45">
         <f t="shared" ca="1" si="2"/>
-        <v>598.1945584611542</v>
+        <v>622.52569790221742</v>
       </c>
       <c r="AI7" s="45">
         <f t="shared" ca="1" si="2"/>
-        <v>607.37515634890417</v>
+        <v>596.71990328697893</v>
       </c>
       <c r="AJ7" s="45">
         <f t="shared" ca="1" si="2"/>
-        <v>622.1886339771487</v>
+        <v>582.37191121390015</v>
       </c>
       <c r="AK7" s="45">
         <f t="shared" ca="1" si="2"/>
-        <v>590.11005057543787</v>
+        <v>583.68788660971597</v>
       </c>
       <c r="AL7" s="45">
         <f t="shared" ca="1" si="2"/>
-        <v>634.40884182200159</v>
+        <v>589.47194535001404</v>
       </c>
     </row>
     <row r="8" spans="1:38" x14ac:dyDescent="0.25">
@@ -8550,23 +10740,23 @@
       </c>
       <c r="S9" s="45">
         <f ca="1">MAX(0,S7-$B$6)</f>
-        <v>16.411678567015997</v>
+        <v>29.568427177387548</v>
       </c>
       <c r="T9" s="45">
         <f t="shared" ref="T9:AL9" ca="1" si="5">MAX(0,T7-$B$6)</f>
-        <v>0</v>
+        <v>15.234438737241589</v>
       </c>
       <c r="U9" s="45">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>12.143140904909046</v>
       </c>
       <c r="V9" s="45">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>42.076491737086826</v>
       </c>
       <c r="W9" s="45">
         <f t="shared" ca="1" si="5"/>
-        <v>57.710179840750698</v>
+        <v>0</v>
       </c>
       <c r="X9" s="45">
         <f t="shared" ca="1" si="5"/>
@@ -8574,11 +10764,11 @@
       </c>
       <c r="Y9" s="45">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>11.639591650118518</v>
       </c>
       <c r="Z9" s="45">
         <f t="shared" ca="1" si="5"/>
-        <v>11.362447290689829</v>
+        <v>0</v>
       </c>
       <c r="AA9" s="45">
         <f t="shared" ca="1" si="5"/>
@@ -8586,7 +10776,7 @@
       </c>
       <c r="AB9" s="45">
         <f t="shared" ca="1" si="5"/>
-        <v>0.77116428042177176</v>
+        <v>0</v>
       </c>
       <c r="AC9" s="45">
         <f t="shared" ca="1" si="5"/>
@@ -8594,23 +10784,23 @@
       </c>
       <c r="AD9" s="45">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>1.3640681560124222</v>
       </c>
       <c r="AE9" s="45">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>58.886315602748709</v>
       </c>
       <c r="AF9" s="45">
         <f t="shared" ca="1" si="5"/>
-        <v>21.453561334677033</v>
+        <v>0</v>
       </c>
       <c r="AG9" s="45">
         <f t="shared" ca="1" si="5"/>
-        <v>0.1323967743068124</v>
+        <v>0</v>
       </c>
       <c r="AH9" s="45">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>12.525697902217416</v>
       </c>
       <c r="AI9" s="45">
         <f t="shared" ca="1" si="5"/>
@@ -8618,7 +10808,7 @@
       </c>
       <c r="AJ9" s="45">
         <f t="shared" ca="1" si="5"/>
-        <v>12.188633977148697</v>
+        <v>0</v>
       </c>
       <c r="AK9" s="45">
         <f t="shared" ca="1" si="5"/>
@@ -8626,7 +10816,7 @@
       </c>
       <c r="AL9" s="45">
         <f t="shared" ca="1" si="5"/>
-        <v>24.408841822001591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:38" x14ac:dyDescent="0.25">
@@ -8651,79 +10841,79 @@
       </c>
       <c r="T10" s="45">
         <f t="shared" ref="T10:AL10" ca="1" si="6">MAX(0,$B$6-T7)</f>
-        <v>1.6085216061584333</v>
+        <v>0</v>
       </c>
       <c r="U10" s="45">
         <f t="shared" ca="1" si="6"/>
-        <v>5.3873058143091157</v>
+        <v>0</v>
       </c>
       <c r="V10" s="45">
         <f t="shared" ca="1" si="6"/>
-        <v>10.372466541894937</v>
+        <v>0</v>
       </c>
       <c r="W10" s="45">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>5.3531807137510441</v>
       </c>
       <c r="X10" s="45">
         <f t="shared" ca="1" si="6"/>
-        <v>1.0164482937358343</v>
+        <v>30.155488556687033</v>
       </c>
       <c r="Y10" s="45">
         <f t="shared" ca="1" si="6"/>
-        <v>4.2157870649991764</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="45">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>2.8630955404756833</v>
       </c>
       <c r="AA10" s="45">
         <f t="shared" ca="1" si="6"/>
-        <v>6.2937228867127715</v>
+        <v>10.444141998760756</v>
       </c>
       <c r="AB10" s="45">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>22.60826858450389</v>
       </c>
       <c r="AC10" s="45">
         <f t="shared" ca="1" si="6"/>
-        <v>25.889127009122262</v>
+        <v>2.3948190755271526</v>
       </c>
       <c r="AD10" s="45">
         <f t="shared" ca="1" si="6"/>
-        <v>41.475183684569856</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="45">
         <f t="shared" ca="1" si="6"/>
-        <v>26.017732288764478</v>
+        <v>0</v>
       </c>
       <c r="AF10" s="45">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>21.137511697588479</v>
       </c>
       <c r="AG10" s="45">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>20.438246677685015</v>
       </c>
       <c r="AH10" s="45">
         <f t="shared" ca="1" si="6"/>
-        <v>11.805441538845798</v>
+        <v>0</v>
       </c>
       <c r="AI10" s="45">
         <f t="shared" ca="1" si="6"/>
-        <v>2.62484365109583</v>
+        <v>13.280096713021067</v>
       </c>
       <c r="AJ10" s="45">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>27.628088786099852</v>
       </c>
       <c r="AK10" s="45">
         <f t="shared" ca="1" si="6"/>
-        <v>19.889949424562133</v>
+        <v>26.312113390284026</v>
       </c>
       <c r="AL10" s="45">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>20.528054649985961</v>
       </c>
     </row>
     <row r="11" spans="1:38" x14ac:dyDescent="0.25">
@@ -8744,7 +10934,7 @@
       </c>
       <c r="S11" s="45">
         <f ca="1">AVERAGE(S9:AL9)</f>
-        <v>7.2219451943506217</v>
+        <v>9.1719085933861031</v>
       </c>
       <c r="T11" s="45"/>
       <c r="U11" s="45"/>
@@ -8786,7 +10976,7 @@
       </c>
       <c r="S12" s="45">
         <f ca="1">AVERAGE(S10:AL10)</f>
-        <v>7.8298264902385313</v>
+        <v>10.157155319218498</v>
       </c>
       <c r="T12" s="45"/>
       <c r="U12" s="45"/>
@@ -8828,7 +11018,7 @@
       </c>
       <c r="S13" s="45">
         <f ca="1">S11*EXP(-$B$8*$B$7)</f>
-        <v>7.2140684019993788</v>
+        <v>9.1619050254400047</v>
       </c>
       <c r="T13" s="45"/>
       <c r="U13" s="45"/>
@@ -8870,7 +11060,7 @@
       </c>
       <c r="S14" s="45">
         <f ca="1">S12*EXP(-$B$8*$B$7)</f>
-        <v>7.8212866971841457</v>
+        <v>10.146077167671269</v>
       </c>
       <c r="T14" s="45"/>
       <c r="U14" s="45"/>
@@ -9046,7 +11236,7 @@
       </c>
       <c r="B19" s="42">
         <f ca="1">S13</f>
-        <v>7.2140684019993788</v>
+        <v>9.1619050254400047</v>
       </c>
       <c r="D19" s="33"/>
       <c r="G19" s="1">
@@ -9088,7 +11278,7 @@
       </c>
       <c r="B20" s="42">
         <f ca="1">S14</f>
-        <v>7.8212866971841457</v>
+        <v>10.146077167671269</v>
       </c>
       <c r="D20" s="33"/>
       <c r="G20" s="1">
@@ -12125,6 +14315,4701 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25C0F9A0-C198-4A19-A2D0-EC44EAC7B463}">
+  <dimension ref="A1:AL252"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="Q2" workbookViewId="0">
+      <selection activeCell="AD23" sqref="AD23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.5703125" customWidth="1"/>
+    <col min="2" max="2" width="20.85546875" customWidth="1"/>
+    <col min="4" max="6" width="11.85546875" customWidth="1"/>
+    <col min="7" max="7" width="11" customWidth="1"/>
+    <col min="8" max="8" width="11.7109375" customWidth="1"/>
+    <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="11" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.42578125" customWidth="1"/>
+    <col min="17" max="17" width="6" customWidth="1"/>
+    <col min="18" max="18" width="34.5703125" customWidth="1"/>
+    <col min="19" max="27" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="28" max="38" width="13.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:38" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="37" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" s="33"/>
+      <c r="G1" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+      <c r="N1" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="O1">
+        <f>B5</f>
+        <v>606.78</v>
+      </c>
+      <c r="Q1" s="47" t="s">
+        <v>90</v>
+      </c>
+      <c r="R1" s="47" t="s">
+        <v>91</v>
+      </c>
+      <c r="S1" s="47" t="s">
+        <v>92</v>
+      </c>
+      <c r="T1" s="47" t="s">
+        <v>93</v>
+      </c>
+      <c r="U1" s="47" t="s">
+        <v>94</v>
+      </c>
+      <c r="V1" s="47" t="s">
+        <v>95</v>
+      </c>
+      <c r="W1" s="47" t="s">
+        <v>96</v>
+      </c>
+      <c r="X1" s="47" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y1" s="47" t="s">
+        <v>98</v>
+      </c>
+      <c r="Z1" s="47" t="s">
+        <v>99</v>
+      </c>
+      <c r="AA1" s="47" t="s">
+        <v>100</v>
+      </c>
+      <c r="AB1" s="47" t="s">
+        <v>101</v>
+      </c>
+      <c r="AC1" s="47" t="s">
+        <v>102</v>
+      </c>
+      <c r="AD1" s="47" t="s">
+        <v>103</v>
+      </c>
+      <c r="AE1" s="47" t="s">
+        <v>104</v>
+      </c>
+      <c r="AF1" s="47" t="s">
+        <v>105</v>
+      </c>
+      <c r="AG1" s="47" t="s">
+        <v>106</v>
+      </c>
+      <c r="AH1" s="47" t="s">
+        <v>107</v>
+      </c>
+      <c r="AI1" s="47" t="s">
+        <v>108</v>
+      </c>
+      <c r="AJ1" s="47" t="s">
+        <v>109</v>
+      </c>
+      <c r="AK1" s="47" t="s">
+        <v>110</v>
+      </c>
+      <c r="AL1" s="47" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A2" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="33"/>
+      <c r="G2" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="K2" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="N2" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="O2" s="46">
+        <f>AVERAGE(I4:I400)</f>
+        <v>5.1548809465860532E-4</v>
+      </c>
+      <c r="Q2" s="47">
+        <v>0</v>
+      </c>
+      <c r="R2" s="45">
+        <v>0</v>
+      </c>
+      <c r="S2" s="45">
+        <f>$O$1</f>
+        <v>606.78</v>
+      </c>
+      <c r="T2" s="45">
+        <f t="shared" ref="T2:AL2" si="0">$O$1</f>
+        <v>606.78</v>
+      </c>
+      <c r="U2" s="45">
+        <f t="shared" si="0"/>
+        <v>606.78</v>
+      </c>
+      <c r="V2" s="45">
+        <f t="shared" si="0"/>
+        <v>606.78</v>
+      </c>
+      <c r="W2" s="45">
+        <f t="shared" si="0"/>
+        <v>606.78</v>
+      </c>
+      <c r="X2" s="45">
+        <f t="shared" si="0"/>
+        <v>606.78</v>
+      </c>
+      <c r="Y2" s="45">
+        <f t="shared" si="0"/>
+        <v>606.78</v>
+      </c>
+      <c r="Z2" s="45">
+        <f t="shared" si="0"/>
+        <v>606.78</v>
+      </c>
+      <c r="AA2" s="45">
+        <f t="shared" si="0"/>
+        <v>606.78</v>
+      </c>
+      <c r="AB2" s="45">
+        <f t="shared" si="0"/>
+        <v>606.78</v>
+      </c>
+      <c r="AC2" s="45">
+        <f t="shared" si="0"/>
+        <v>606.78</v>
+      </c>
+      <c r="AD2" s="45">
+        <f t="shared" si="0"/>
+        <v>606.78</v>
+      </c>
+      <c r="AE2" s="45">
+        <f t="shared" si="0"/>
+        <v>606.78</v>
+      </c>
+      <c r="AF2" s="45">
+        <f t="shared" si="0"/>
+        <v>606.78</v>
+      </c>
+      <c r="AG2" s="45">
+        <f t="shared" si="0"/>
+        <v>606.78</v>
+      </c>
+      <c r="AH2" s="45">
+        <f t="shared" si="0"/>
+        <v>606.78</v>
+      </c>
+      <c r="AI2" s="45">
+        <f t="shared" si="0"/>
+        <v>606.78</v>
+      </c>
+      <c r="AJ2" s="45">
+        <f t="shared" si="0"/>
+        <v>606.78</v>
+      </c>
+      <c r="AK2" s="45">
+        <f t="shared" si="0"/>
+        <v>606.78</v>
+      </c>
+      <c r="AL2" s="45">
+        <f t="shared" si="0"/>
+        <v>606.78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A3" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="39">
+        <v>45833</v>
+      </c>
+      <c r="D3" s="33"/>
+      <c r="G3" s="1">
+        <v>45468</v>
+      </c>
+      <c r="H3">
+        <v>544.83000000000004</v>
+      </c>
+      <c r="N3" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="O3" s="46">
+        <f>B9</f>
+        <v>0.20580774606258712</v>
+      </c>
+      <c r="Q3" s="47">
+        <v>1</v>
+      </c>
+      <c r="R3" s="45">
+        <f>1/252</f>
+        <v>3.968253968253968E-3</v>
+      </c>
+      <c r="S3" s="45">
+        <f ca="1">S2*EXP(($O$2-0.5*$O$3*$O$3)*$R$3+ SQRT($R$3)*$O$3*_xlfn.NORM.S.INV(RAND()))</f>
+        <v>600.36593525621299</v>
+      </c>
+      <c r="T3" s="45">
+        <f t="shared" ref="S3:AL7" ca="1" si="1">T2*EXP(($O$2-0.5*$O$3*$O$3)*$R$3+ SQRT($R$3)*$O$3*_xlfn.NORM.S.INV(RAND()))</f>
+        <v>600.30481134681384</v>
+      </c>
+      <c r="U3" s="45">
+        <f t="shared" ca="1" si="1"/>
+        <v>600.05442459084179</v>
+      </c>
+      <c r="V3" s="45">
+        <f t="shared" ca="1" si="1"/>
+        <v>619.08503788841892</v>
+      </c>
+      <c r="W3" s="45">
+        <f t="shared" ca="1" si="1"/>
+        <v>598.17095123296212</v>
+      </c>
+      <c r="X3" s="45">
+        <f t="shared" ca="1" si="1"/>
+        <v>602.74303153424637</v>
+      </c>
+      <c r="Y3" s="45">
+        <f t="shared" ca="1" si="1"/>
+        <v>596.98419230473507</v>
+      </c>
+      <c r="Z3" s="45">
+        <f t="shared" ca="1" si="1"/>
+        <v>601.02497956098455</v>
+      </c>
+      <c r="AA3" s="45">
+        <f t="shared" ca="1" si="1"/>
+        <v>611.92478168966193</v>
+      </c>
+      <c r="AB3" s="45">
+        <f t="shared" ca="1" si="1"/>
+        <v>613.336330822577</v>
+      </c>
+      <c r="AC3" s="45">
+        <f t="shared" ca="1" si="1"/>
+        <v>605.77171157332975</v>
+      </c>
+      <c r="AD3" s="45">
+        <f t="shared" ca="1" si="1"/>
+        <v>608.84741046385193</v>
+      </c>
+      <c r="AE3" s="45">
+        <f t="shared" ca="1" si="1"/>
+        <v>600.89705036537907</v>
+      </c>
+      <c r="AF3" s="45">
+        <f t="shared" ca="1" si="1"/>
+        <v>615.31473648597637</v>
+      </c>
+      <c r="AG3" s="45">
+        <f t="shared" ca="1" si="1"/>
+        <v>616.26487958640735</v>
+      </c>
+      <c r="AH3" s="45">
+        <f t="shared" ca="1" si="1"/>
+        <v>600.95580708831699</v>
+      </c>
+      <c r="AI3" s="45">
+        <f t="shared" ca="1" si="1"/>
+        <v>611.35798480718381</v>
+      </c>
+      <c r="AJ3" s="45">
+        <f t="shared" ca="1" si="1"/>
+        <v>606.76006943745949</v>
+      </c>
+      <c r="AK3" s="45">
+        <f t="shared" ca="1" si="1"/>
+        <v>617.70596583109375</v>
+      </c>
+      <c r="AL3" s="45">
+        <f t="shared" ca="1" si="1"/>
+        <v>585.98793379733286</v>
+      </c>
+    </row>
+    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A4" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="39">
+        <v>45839</v>
+      </c>
+      <c r="D4" s="33"/>
+      <c r="G4" s="1">
+        <v>45469</v>
+      </c>
+      <c r="H4">
+        <v>545.51</v>
+      </c>
+      <c r="I4" s="24">
+        <f>(H4/H3)-1</f>
+        <v>1.2480957362845935E-3</v>
+      </c>
+      <c r="J4" s="2">
+        <f>_xlfn.STDEV.S(I4:I252)</f>
+        <v>1.2964669380293765E-2</v>
+      </c>
+      <c r="K4" s="24">
+        <f>J4*SQRT(252)</f>
+        <v>0.20580774606258712</v>
+      </c>
+      <c r="N4" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="O4" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q4" s="47">
+        <v>2</v>
+      </c>
+      <c r="R4" s="45">
+        <f>1/252</f>
+        <v>3.968253968253968E-3</v>
+      </c>
+      <c r="S4" s="45">
+        <f t="shared" ca="1" si="1"/>
+        <v>591.92443288947118</v>
+      </c>
+      <c r="T4" s="45">
+        <f t="shared" ca="1" si="1"/>
+        <v>610.30446607139675</v>
+      </c>
+      <c r="U4" s="45">
+        <f t="shared" ca="1" si="1"/>
+        <v>592.11996261583545</v>
+      </c>
+      <c r="V4" s="45">
+        <f t="shared" ca="1" si="1"/>
+        <v>609.13569053143783</v>
+      </c>
+      <c r="W4" s="45">
+        <f t="shared" ca="1" si="1"/>
+        <v>592.23503319224574</v>
+      </c>
+      <c r="X4" s="45">
+        <f t="shared" ca="1" si="1"/>
+        <v>610.361252688185</v>
+      </c>
+      <c r="Y4" s="45">
+        <f t="shared" ca="1" si="1"/>
+        <v>585.37857244769498</v>
+      </c>
+      <c r="Z4" s="45">
+        <f t="shared" ca="1" si="1"/>
+        <v>593.66874548080409</v>
+      </c>
+      <c r="AA4" s="45">
+        <f t="shared" ca="1" si="1"/>
+        <v>609.24372596379499</v>
+      </c>
+      <c r="AB4" s="45">
+        <f t="shared" ca="1" si="1"/>
+        <v>613.92136382165597</v>
+      </c>
+      <c r="AC4" s="45">
+        <f t="shared" ca="1" si="1"/>
+        <v>616.61794668512005</v>
+      </c>
+      <c r="AD4" s="45">
+        <f t="shared" ca="1" si="1"/>
+        <v>602.72833891905395</v>
+      </c>
+      <c r="AE4" s="45">
+        <f t="shared" ca="1" si="1"/>
+        <v>593.28183582140525</v>
+      </c>
+      <c r="AF4" s="45">
+        <f t="shared" ca="1" si="1"/>
+        <v>613.72982420227856</v>
+      </c>
+      <c r="AG4" s="45">
+        <f t="shared" ca="1" si="1"/>
+        <v>615.15511061281586</v>
+      </c>
+      <c r="AH4" s="45">
+        <f t="shared" ca="1" si="1"/>
+        <v>596.61932399774844</v>
+      </c>
+      <c r="AI4" s="45">
+        <f t="shared" ca="1" si="1"/>
+        <v>621.87787993698294</v>
+      </c>
+      <c r="AJ4" s="45">
+        <f t="shared" ca="1" si="1"/>
+        <v>614.26567051388531</v>
+      </c>
+      <c r="AK4" s="45">
+        <f t="shared" ca="1" si="1"/>
+        <v>623.31441277739873</v>
+      </c>
+      <c r="AL4" s="45">
+        <f t="shared" ca="1" si="1"/>
+        <v>591.38518160608078</v>
+      </c>
+    </row>
+    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A5" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" s="38">
+        <v>606.78</v>
+      </c>
+      <c r="D5" s="33"/>
+      <c r="G5" s="1">
+        <v>45470</v>
+      </c>
+      <c r="H5">
+        <v>546.37</v>
+      </c>
+      <c r="I5" s="24">
+        <f t="shared" ref="I5:I68" si="2">(H5/H4)-1</f>
+        <v>1.5765063885171404E-3</v>
+      </c>
+      <c r="N5" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="O5">
+        <v>5</v>
+      </c>
+      <c r="Q5" s="47">
+        <v>3</v>
+      </c>
+      <c r="R5" s="45">
+        <f>1/252</f>
+        <v>3.968253968253968E-3</v>
+      </c>
+      <c r="S5" s="45">
+        <f ca="1">S4*EXP(($O$2-0.5*$O$3*$O$3)*$R$3+ SQRT($R$3)*$O$3*_xlfn.NORM.S.INV(RAND()))</f>
+        <v>599.62272671270068</v>
+      </c>
+      <c r="T5" s="45">
+        <f t="shared" ca="1" si="1"/>
+        <v>615.49064552376251</v>
+      </c>
+      <c r="U5" s="45">
+        <f t="shared" ca="1" si="1"/>
+        <v>590.4056369600986</v>
+      </c>
+      <c r="V5" s="45">
+        <f t="shared" ca="1" si="1"/>
+        <v>631.20982646795198</v>
+      </c>
+      <c r="W5" s="45">
+        <f t="shared" ca="1" si="1"/>
+        <v>596.04155107123279</v>
+      </c>
+      <c r="X5" s="45">
+        <f t="shared" ca="1" si="1"/>
+        <v>617.1082522797642</v>
+      </c>
+      <c r="Y5" s="45">
+        <f t="shared" ca="1" si="1"/>
+        <v>587.51096572963525</v>
+      </c>
+      <c r="Z5" s="45">
+        <f t="shared" ca="1" si="1"/>
+        <v>586.50559660151634</v>
+      </c>
+      <c r="AA5" s="45">
+        <f t="shared" ca="1" si="1"/>
+        <v>604.12779919768741</v>
+      </c>
+      <c r="AB5" s="45">
+        <f t="shared" ca="1" si="1"/>
+        <v>626.79746543075441</v>
+      </c>
+      <c r="AC5" s="45">
+        <f t="shared" ca="1" si="1"/>
+        <v>619.17235344524522</v>
+      </c>
+      <c r="AD5" s="45">
+        <f t="shared" ca="1" si="1"/>
+        <v>594.40002345664288</v>
+      </c>
+      <c r="AE5" s="45">
+        <f t="shared" ca="1" si="1"/>
+        <v>596.26760265463213</v>
+      </c>
+      <c r="AF5" s="45">
+        <f t="shared" ca="1" si="1"/>
+        <v>615.61847793966081</v>
+      </c>
+      <c r="AG5" s="45">
+        <f t="shared" ca="1" si="1"/>
+        <v>611.86763998793765</v>
+      </c>
+      <c r="AH5" s="45">
+        <f t="shared" ca="1" si="1"/>
+        <v>590.33561839386891</v>
+      </c>
+      <c r="AI5" s="45">
+        <f t="shared" ca="1" si="1"/>
+        <v>621.60723900675362</v>
+      </c>
+      <c r="AJ5" s="45">
+        <f t="shared" ca="1" si="1"/>
+        <v>614.96092210694258</v>
+      </c>
+      <c r="AK5" s="45">
+        <f t="shared" ca="1" si="1"/>
+        <v>618.14983826989499</v>
+      </c>
+      <c r="AL5" s="45">
+        <f t="shared" ca="1" si="1"/>
+        <v>594.64448984619969</v>
+      </c>
+    </row>
+    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A6" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="38">
+        <v>610</v>
+      </c>
+      <c r="D6" s="33"/>
+      <c r="G6" s="1">
+        <v>45471</v>
+      </c>
+      <c r="H6">
+        <v>544.22</v>
+      </c>
+      <c r="I6" s="24">
+        <f t="shared" si="2"/>
+        <v>-3.9350623204055246E-3</v>
+      </c>
+      <c r="N6" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="O6">
+        <v>20</v>
+      </c>
+      <c r="Q6" s="47">
+        <v>4</v>
+      </c>
+      <c r="R6" s="45">
+        <f t="shared" ref="R6:R7" si="3">1/252</f>
+        <v>3.968253968253968E-3</v>
+      </c>
+      <c r="S6" s="45">
+        <f t="shared" ca="1" si="1"/>
+        <v>591.50888457377516</v>
+      </c>
+      <c r="T6" s="45">
+        <f t="shared" ca="1" si="1"/>
+        <v>625.98619463286661</v>
+      </c>
+      <c r="U6" s="45">
+        <f t="shared" ca="1" si="1"/>
+        <v>592.36268931664165</v>
+      </c>
+      <c r="V6" s="45">
+        <f t="shared" ca="1" si="1"/>
+        <v>622.1183543183846</v>
+      </c>
+      <c r="W6" s="45">
+        <f t="shared" ca="1" si="1"/>
+        <v>606.32290808255391</v>
+      </c>
+      <c r="X6" s="45">
+        <f t="shared" ca="1" si="1"/>
+        <v>610.30494623182142</v>
+      </c>
+      <c r="Y6" s="45">
+        <f t="shared" ca="1" si="1"/>
+        <v>605.38300821184896</v>
+      </c>
+      <c r="Z6" s="45">
+        <f t="shared" ca="1" si="1"/>
+        <v>598.00071080246823</v>
+      </c>
+      <c r="AA6" s="45">
+        <f t="shared" ca="1" si="1"/>
+        <v>608.09892332841389</v>
+      </c>
+      <c r="AB6" s="45">
+        <f t="shared" ca="1" si="1"/>
+        <v>624.00274729278533</v>
+      </c>
+      <c r="AC6" s="45">
+        <f t="shared" ca="1" si="1"/>
+        <v>613.69931851967715</v>
+      </c>
+      <c r="AD6" s="45">
+        <f t="shared" ca="1" si="1"/>
+        <v>603.05477148394812</v>
+      </c>
+      <c r="AE6" s="45">
+        <f t="shared" ca="1" si="1"/>
+        <v>595.86934064452362</v>
+      </c>
+      <c r="AF6" s="45">
+        <f t="shared" ca="1" si="1"/>
+        <v>610.18075187990235</v>
+      </c>
+      <c r="AG6" s="45">
+        <f t="shared" ca="1" si="1"/>
+        <v>605.11812042354211</v>
+      </c>
+      <c r="AH6" s="45">
+        <f t="shared" ca="1" si="1"/>
+        <v>586.07023932972254</v>
+      </c>
+      <c r="AI6" s="45">
+        <f t="shared" ca="1" si="1"/>
+        <v>629.92383803577366</v>
+      </c>
+      <c r="AJ6" s="45">
+        <f t="shared" ca="1" si="1"/>
+        <v>604.3818456149213</v>
+      </c>
+      <c r="AK6" s="45">
+        <f t="shared" ca="1" si="1"/>
+        <v>607.55326961195362</v>
+      </c>
+      <c r="AL6" s="45">
+        <f t="shared" ca="1" si="1"/>
+        <v>604.67077523365276</v>
+      </c>
+    </row>
+    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A7" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" s="38">
+        <f>D24/252</f>
+        <v>1.984126984126984E-2</v>
+      </c>
+      <c r="D7" s="33"/>
+      <c r="G7" s="1">
+        <v>45474</v>
+      </c>
+      <c r="H7">
+        <v>545.34</v>
+      </c>
+      <c r="I7" s="24">
+        <f t="shared" si="2"/>
+        <v>2.057991253537228E-3</v>
+      </c>
+      <c r="Q7" s="47">
+        <v>5</v>
+      </c>
+      <c r="R7" s="45">
+        <f t="shared" si="3"/>
+        <v>3.968253968253968E-3</v>
+      </c>
+      <c r="S7" s="45">
+        <f t="shared" ca="1" si="1"/>
+        <v>599.41306195598088</v>
+      </c>
+      <c r="T7" s="45">
+        <f t="shared" ca="1" si="1"/>
+        <v>636.34259723682544</v>
+      </c>
+      <c r="U7" s="45">
+        <f t="shared" ca="1" si="1"/>
+        <v>596.4409466089669</v>
+      </c>
+      <c r="V7" s="45">
+        <f t="shared" ca="1" si="1"/>
+        <v>615.30712860368817</v>
+      </c>
+      <c r="W7" s="45">
+        <f t="shared" ca="1" si="1"/>
+        <v>612.29959422540742</v>
+      </c>
+      <c r="X7" s="45">
+        <f t="shared" ca="1" si="1"/>
+        <v>609.51798445471002</v>
+      </c>
+      <c r="Y7" s="45">
+        <f t="shared" ca="1" si="1"/>
+        <v>605.99732595580156</v>
+      </c>
+      <c r="Z7" s="45">
+        <f t="shared" ca="1" si="1"/>
+        <v>604.86158534215576</v>
+      </c>
+      <c r="AA7" s="45">
+        <f t="shared" ca="1" si="1"/>
+        <v>622.00640700563531</v>
+      </c>
+      <c r="AB7" s="45">
+        <f t="shared" ca="1" si="1"/>
+        <v>624.25284602544616</v>
+      </c>
+      <c r="AC7" s="45">
+        <f t="shared" ca="1" si="1"/>
+        <v>604.33438404364119</v>
+      </c>
+      <c r="AD7" s="45">
+        <f t="shared" ca="1" si="1"/>
+        <v>609.84261173630784</v>
+      </c>
+      <c r="AE7" s="45">
+        <f t="shared" ca="1" si="1"/>
+        <v>603.30092636018435</v>
+      </c>
+      <c r="AF7" s="45">
+        <f t="shared" ca="1" si="1"/>
+        <v>613.54263796766679</v>
+      </c>
+      <c r="AG7" s="45">
+        <f t="shared" ca="1" si="1"/>
+        <v>608.57267562269385</v>
+      </c>
+      <c r="AH7" s="45">
+        <f t="shared" ca="1" si="1"/>
+        <v>587.44465559889682</v>
+      </c>
+      <c r="AI7" s="45">
+        <f t="shared" ca="1" si="1"/>
+        <v>624.00909205365019</v>
+      </c>
+      <c r="AJ7" s="45">
+        <f t="shared" ca="1" si="1"/>
+        <v>610.18148352986486</v>
+      </c>
+      <c r="AK7" s="45">
+        <f t="shared" ca="1" si="1"/>
+        <v>603.78961418440224</v>
+      </c>
+      <c r="AL7" s="45">
+        <f t="shared" ca="1" si="1"/>
+        <v>617.88788515238252</v>
+      </c>
+    </row>
+    <row r="8" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A8" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" s="40">
+        <v>5.5E-2</v>
+      </c>
+      <c r="D8" s="33"/>
+      <c r="G8" s="1">
+        <v>45475</v>
+      </c>
+      <c r="H8">
+        <v>549.01</v>
+      </c>
+      <c r="I8" s="24">
+        <f t="shared" si="2"/>
+        <v>6.729746580115048E-3</v>
+      </c>
+      <c r="Q8" s="45"/>
+      <c r="R8" s="45" t="s">
+        <v>118</v>
+      </c>
+      <c r="S8" s="45">
+        <f ca="1">AVERAGE(S3:S7)</f>
+        <v>596.56700827762813</v>
+      </c>
+      <c r="T8" s="45">
+        <f t="shared" ref="T8:AL8" ca="1" si="4">AVERAGE(T3:T7)</f>
+        <v>617.68574296233305</v>
+      </c>
+      <c r="U8" s="45">
+        <f t="shared" ca="1" si="4"/>
+        <v>594.27673201847688</v>
+      </c>
+      <c r="V8" s="45">
+        <f t="shared" ca="1" si="4"/>
+        <v>619.37120756197635</v>
+      </c>
+      <c r="W8" s="45">
+        <f t="shared" ca="1" si="4"/>
+        <v>601.01400756088037</v>
+      </c>
+      <c r="X8" s="45">
+        <f t="shared" ca="1" si="4"/>
+        <v>610.00709343774543</v>
+      </c>
+      <c r="Y8" s="45">
+        <f t="shared" ca="1" si="4"/>
+        <v>596.25081292994309</v>
+      </c>
+      <c r="Z8" s="45">
+        <f t="shared" ca="1" si="4"/>
+        <v>596.81232355758573</v>
+      </c>
+      <c r="AA8" s="45">
+        <f t="shared" ca="1" si="4"/>
+        <v>611.08032743703859</v>
+      </c>
+      <c r="AB8" s="45">
+        <f t="shared" ca="1" si="4"/>
+        <v>620.46215067864375</v>
+      </c>
+      <c r="AC8" s="45">
+        <f t="shared" ca="1" si="4"/>
+        <v>611.9191428534026</v>
+      </c>
+      <c r="AD8" s="45">
+        <f t="shared" ca="1" si="4"/>
+        <v>603.77463121196092</v>
+      </c>
+      <c r="AE8" s="45">
+        <f t="shared" ca="1" si="4"/>
+        <v>597.92335116922493</v>
+      </c>
+      <c r="AF8" s="45">
+        <f t="shared" ca="1" si="4"/>
+        <v>613.677285695097</v>
+      </c>
+      <c r="AG8" s="45">
+        <f t="shared" ca="1" si="4"/>
+        <v>611.39568524667936</v>
+      </c>
+      <c r="AH8" s="45">
+        <f t="shared" ca="1" si="4"/>
+        <v>592.28512888171076</v>
+      </c>
+      <c r="AI8" s="45">
+        <f t="shared" ca="1" si="4"/>
+        <v>621.75520676806877</v>
+      </c>
+      <c r="AJ8" s="45">
+        <f t="shared" ca="1" si="4"/>
+        <v>610.10999824061469</v>
+      </c>
+      <c r="AK8" s="45">
+        <f t="shared" ca="1" si="4"/>
+        <v>614.10262013494867</v>
+      </c>
+      <c r="AL8" s="45">
+        <f t="shared" ca="1" si="4"/>
+        <v>598.91525312712963</v>
+      </c>
+    </row>
+    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A9" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" s="41">
+        <f>K4</f>
+        <v>0.20580774606258712</v>
+      </c>
+      <c r="D9" s="33"/>
+      <c r="G9" s="1">
+        <v>45476</v>
+      </c>
+      <c r="H9">
+        <v>551.46</v>
+      </c>
+      <c r="I9" s="24">
+        <f t="shared" si="2"/>
+        <v>4.4625780951168537E-3</v>
+      </c>
+      <c r="Q9" s="45"/>
+      <c r="R9" t="s">
+        <v>119</v>
+      </c>
+      <c r="S9" s="45">
+        <f ca="1">GEOMEAN(S3:S7)</f>
+        <v>596.55374134629437</v>
+      </c>
+      <c r="T9" s="45">
+        <f t="shared" ref="T9:AL9" ca="1" si="5">GEOMEAN(T3:T7)</f>
+        <v>617.55993969049393</v>
+      </c>
+      <c r="U9" s="45">
+        <f t="shared" ca="1" si="5"/>
+        <v>594.26642973990522</v>
+      </c>
+      <c r="V9" s="45">
+        <f t="shared" ca="1" si="5"/>
+        <v>619.327855020117</v>
+      </c>
+      <c r="W9" s="45">
+        <f t="shared" ca="1" si="5"/>
+        <v>600.96998157154042</v>
+      </c>
+      <c r="X9" s="45">
+        <f t="shared" ca="1" si="5"/>
+        <v>609.99009695522489</v>
+      </c>
+      <c r="Y9" s="45">
+        <f t="shared" ca="1" si="5"/>
+        <v>596.18811333369297</v>
+      </c>
+      <c r="Z9" s="45">
+        <f t="shared" ca="1" si="5"/>
+        <v>596.77870048321427</v>
+      </c>
+      <c r="AA9" s="45">
+        <f t="shared" ca="1" si="5"/>
+        <v>611.05092242099056</v>
+      </c>
+      <c r="AB9" s="45">
+        <f t="shared" ca="1" si="5"/>
+        <v>620.43621588429846</v>
+      </c>
+      <c r="AC9" s="45">
+        <f t="shared" ca="1" si="5"/>
+        <v>611.89080959978469</v>
+      </c>
+      <c r="AD9" s="45">
+        <f t="shared" ca="1" si="5"/>
+        <v>603.74936011253817</v>
+      </c>
+      <c r="AE9" s="45">
+        <f t="shared" ca="1" si="5"/>
+        <v>597.91228115816011</v>
+      </c>
+      <c r="AF9" s="45">
+        <f t="shared" ca="1" si="5"/>
+        <v>613.67423359941006</v>
+      </c>
+      <c r="AG9" s="45">
+        <f t="shared" ca="1" si="5"/>
+        <v>611.3816918799522</v>
+      </c>
+      <c r="AH9" s="45">
+        <f t="shared" ca="1" si="5"/>
+        <v>592.25821445578197</v>
+      </c>
+      <c r="AI9" s="45">
+        <f t="shared" ca="1" si="5"/>
+        <v>621.72616463463964</v>
+      </c>
+      <c r="AJ9" s="45">
+        <f t="shared" ca="1" si="5"/>
+        <v>610.09608516963362</v>
+      </c>
+      <c r="AK9" s="45">
+        <f t="shared" ca="1" si="5"/>
+        <v>614.05962795686321</v>
+      </c>
+      <c r="AL9" s="45">
+        <f t="shared" ca="1" si="5"/>
+        <v>598.80998561695162</v>
+      </c>
+    </row>
+    <row r="10" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="D10" s="33"/>
+      <c r="G10" s="1">
+        <v>45478</v>
+      </c>
+      <c r="H10">
+        <v>554.64</v>
+      </c>
+      <c r="I10" s="24">
+        <f t="shared" si="2"/>
+        <v>5.766510717005735E-3</v>
+      </c>
+      <c r="Q10" s="45"/>
+      <c r="R10" s="45" t="s">
+        <v>120</v>
+      </c>
+      <c r="S10" s="45">
+        <f ca="1">MAX(0,S8-$B$6)</f>
+        <v>0</v>
+      </c>
+      <c r="T10" s="45">
+        <f ca="1">MAX(0,AVERAGE(T3:T7)-$B$6)</f>
+        <v>7.6857429623330518</v>
+      </c>
+      <c r="U10" s="45">
+        <f ca="1">MAX(0,AVERAGE(U3:U7)-$B$6)</f>
+        <v>0</v>
+      </c>
+      <c r="V10" s="45">
+        <f ca="1">MAX(0,AVERAGE(V3:V7)-$B$6)</f>
+        <v>9.3712075619763482</v>
+      </c>
+      <c r="W10" s="45">
+        <f ca="1">MAX(0,AVERAGE(W3:W7)-$B$6)</f>
+        <v>0</v>
+      </c>
+      <c r="X10" s="45">
+        <f ca="1">MAX(0,AVERAGE(X3:X7)-$B$6)</f>
+        <v>7.0934377454250352E-3</v>
+      </c>
+      <c r="Y10" s="45">
+        <f ca="1">MAX(0,AVERAGE(Y3:Y7)-$B$6)</f>
+        <v>0</v>
+      </c>
+      <c r="Z10" s="45">
+        <f ca="1">MAX(0,AVERAGE(Z3:Z7)-$B$6)</f>
+        <v>0</v>
+      </c>
+      <c r="AA10" s="45">
+        <f ca="1">MAX(0,AVERAGE(AA3:AA7)-$B$6)</f>
+        <v>1.0803274370385907</v>
+      </c>
+      <c r="AB10" s="45">
+        <f ca="1">MAX(0,AVERAGE(AB3:AB7)-$B$6)</f>
+        <v>10.462150678643752</v>
+      </c>
+      <c r="AC10" s="45">
+        <f ca="1">MAX(0,AVERAGE(AC3:AC7)-$B$6)</f>
+        <v>1.9191428534026045</v>
+      </c>
+      <c r="AD10" s="45">
+        <f ca="1">MAX(0,AVERAGE(AD3:AD7)-$B$6)</f>
+        <v>0</v>
+      </c>
+      <c r="AE10" s="45">
+        <f ca="1">MAX(0,AVERAGE(AE3:AE7)-$B$6)</f>
+        <v>0</v>
+      </c>
+      <c r="AF10" s="45">
+        <f ca="1">MAX(0,AVERAGE(AF3:AF7)-$B$6)</f>
+        <v>3.6772856950969981</v>
+      </c>
+      <c r="AG10" s="45">
+        <f ca="1">MAX(0,AVERAGE(AG3:AG7)-$B$6)</f>
+        <v>1.3956852466793634</v>
+      </c>
+      <c r="AH10" s="45">
+        <f ca="1">MAX(0,AVERAGE(AH3:AH7)-$B$6)</f>
+        <v>0</v>
+      </c>
+      <c r="AI10" s="45">
+        <f ca="1">MAX(0,AVERAGE(AI3:AI7)-$B$6)</f>
+        <v>11.755206768068774</v>
+      </c>
+      <c r="AJ10" s="45">
+        <f ca="1">MAX(0,AVERAGE(AJ3:AJ7)-$B$6)</f>
+        <v>0.10999824061468644</v>
+      </c>
+      <c r="AK10" s="45">
+        <f ca="1">MAX(0,AVERAGE(AK3:AK7)-$B$6)</f>
+        <v>4.1026201349486655</v>
+      </c>
+      <c r="AL10" s="45">
+        <f ca="1">MAX(0,AVERAGE(AL3:AL7)-$B$6)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="D11" s="33"/>
+      <c r="G11" s="1">
+        <v>45481</v>
+      </c>
+      <c r="H11">
+        <v>555.28</v>
+      </c>
+      <c r="I11" s="24">
+        <f t="shared" si="2"/>
+        <v>1.1539016298860449E-3</v>
+      </c>
+      <c r="Q11" s="45"/>
+      <c r="R11" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="S11" s="45">
+        <f ca="1">MAX(0,$B$6-S8)</f>
+        <v>13.432991722371867</v>
+      </c>
+      <c r="T11" s="45">
+        <f ca="1">MAX(0,$B$6-AVERAGE(T3:T7))</f>
+        <v>0</v>
+      </c>
+      <c r="U11" s="45">
+        <f ca="1">MAX(0,$B$6-AVERAGE(U3:U7))</f>
+        <v>15.723267981523122</v>
+      </c>
+      <c r="V11" s="45">
+        <f ca="1">MAX(0,$B$6-AVERAGE(V3:V7))</f>
+        <v>0</v>
+      </c>
+      <c r="W11" s="45">
+        <f ca="1">MAX(0,$B$6-AVERAGE(W3:W7))</f>
+        <v>8.9859924391196273</v>
+      </c>
+      <c r="X11" s="45">
+        <f ca="1">MAX(0,$B$6-AVERAGE(X3:X7))</f>
+        <v>0</v>
+      </c>
+      <c r="Y11" s="45">
+        <f ca="1">MAX(0,$B$6-AVERAGE(Y3:Y7))</f>
+        <v>13.749187070056905</v>
+      </c>
+      <c r="Z11" s="45">
+        <f ca="1">MAX(0,$B$6-AVERAGE(Z3:Z7))</f>
+        <v>13.187676442414272</v>
+      </c>
+      <c r="AA11" s="45">
+        <f ca="1">MAX(0,$B$6-AVERAGE(AA3:AA7))</f>
+        <v>0</v>
+      </c>
+      <c r="AB11" s="45">
+        <f ca="1">MAX(0,$B$6-AVERAGE(AB3:AB7))</f>
+        <v>0</v>
+      </c>
+      <c r="AC11" s="45">
+        <f ca="1">MAX(0,$B$6-AVERAGE(AC3:AC7))</f>
+        <v>0</v>
+      </c>
+      <c r="AD11" s="45">
+        <f ca="1">MAX(0,$B$6-AVERAGE(AD3:AD7))</f>
+        <v>6.2253687880390771</v>
+      </c>
+      <c r="AE11" s="45">
+        <f ca="1">MAX(0,$B$6-AVERAGE(AE3:AE7))</f>
+        <v>12.076648830775071</v>
+      </c>
+      <c r="AF11" s="45">
+        <f ca="1">MAX(0,$B$6-AVERAGE(AF3:AF7))</f>
+        <v>0</v>
+      </c>
+      <c r="AG11" s="45">
+        <f ca="1">MAX(0,$B$6-AVERAGE(AG3:AG7))</f>
+        <v>0</v>
+      </c>
+      <c r="AH11" s="45">
+        <f ca="1">MAX(0,$B$6-AVERAGE(AH3:AH7))</f>
+        <v>17.714871118289238</v>
+      </c>
+      <c r="AI11" s="45">
+        <f ca="1">MAX(0,$B$6-AVERAGE(AI3:AI7))</f>
+        <v>0</v>
+      </c>
+      <c r="AJ11" s="45">
+        <f ca="1">MAX(0,$B$6-AVERAGE(AJ3:AJ7))</f>
+        <v>0</v>
+      </c>
+      <c r="AK11" s="45">
+        <f ca="1">MAX(0,$B$6-AVERAGE(AK3:AK7))</f>
+        <v>0</v>
+      </c>
+      <c r="AL11" s="45">
+        <f ca="1">MAX(0,$B$6-AVERAGE(AL3:AL7))</f>
+        <v>11.084746872870369</v>
+      </c>
+    </row>
+    <row r="12" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A12" s="44"/>
+      <c r="B12" s="45"/>
+      <c r="D12" s="33"/>
+      <c r="G12" s="1">
+        <v>45482</v>
+      </c>
+      <c r="H12">
+        <v>555.82000000000005</v>
+      </c>
+      <c r="I12" s="24">
+        <f t="shared" si="2"/>
+        <v>9.7248235124625104E-4</v>
+      </c>
+      <c r="Q12" s="45"/>
+      <c r="R12" s="45" t="s">
+        <v>123</v>
+      </c>
+      <c r="S12" s="45">
+        <f ca="1">MAX(0,S9-$B$6)</f>
+        <v>0</v>
+      </c>
+      <c r="T12" s="45">
+        <f t="shared" ref="T12:AL12" ca="1" si="6">MAX(0,T9-$B$6)</f>
+        <v>7.559939690493934</v>
+      </c>
+      <c r="U12" s="45">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="V12" s="45">
+        <f t="shared" ca="1" si="6"/>
+        <v>9.3278550201169992</v>
+      </c>
+      <c r="W12" s="45">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="X12" s="45">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Y12" s="45">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Z12" s="45">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AA12" s="45">
+        <f t="shared" ca="1" si="6"/>
+        <v>1.0509224209905597</v>
+      </c>
+      <c r="AB12" s="45">
+        <f t="shared" ca="1" si="6"/>
+        <v>10.436215884298463</v>
+      </c>
+      <c r="AC12" s="45">
+        <f t="shared" ca="1" si="6"/>
+        <v>1.8908095997846885</v>
+      </c>
+      <c r="AD12" s="45">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AE12" s="45">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AF12" s="45">
+        <f t="shared" ca="1" si="6"/>
+        <v>3.6742335994100586</v>
+      </c>
+      <c r="AG12" s="45">
+        <f t="shared" ca="1" si="6"/>
+        <v>1.3816918799522</v>
+      </c>
+      <c r="AH12" s="45">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AI12" s="45">
+        <f t="shared" ca="1" si="6"/>
+        <v>11.726164634639645</v>
+      </c>
+      <c r="AJ12" s="45">
+        <f t="shared" ca="1" si="6"/>
+        <v>9.6085169633624901E-2</v>
+      </c>
+      <c r="AK12" s="45">
+        <f t="shared" ca="1" si="6"/>
+        <v>4.0596279568632099</v>
+      </c>
+      <c r="AL12" s="45">
+        <f t="shared" ca="1" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A13" s="44"/>
+      <c r="B13" s="45"/>
+      <c r="D13" s="33"/>
+      <c r="G13" s="1">
+        <v>45483</v>
+      </c>
+      <c r="H13">
+        <v>561.32000000000005</v>
+      </c>
+      <c r="I13" s="24">
+        <f t="shared" si="2"/>
+        <v>9.8952898420352486E-3</v>
+      </c>
+      <c r="Q13" s="45"/>
+      <c r="R13" s="45" t="s">
+        <v>121</v>
+      </c>
+      <c r="S13" s="45">
+        <f ca="1">MAX(0,$B$6-S9)</f>
+        <v>13.446258653705627</v>
+      </c>
+      <c r="T13" s="45">
+        <f t="shared" ref="T13:AL13" ca="1" si="7">MAX(0,$B$6-T9)</f>
+        <v>0</v>
+      </c>
+      <c r="U13" s="45">
+        <f t="shared" ca="1" si="7"/>
+        <v>15.73357026009478</v>
+      </c>
+      <c r="V13" s="45">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="W13" s="45">
+        <f t="shared" ca="1" si="7"/>
+        <v>9.0300184284595844</v>
+      </c>
+      <c r="X13" s="45">
+        <f t="shared" ca="1" si="7"/>
+        <v>9.9030447751147221E-3</v>
+      </c>
+      <c r="Y13" s="45">
+        <f t="shared" ca="1" si="7"/>
+        <v>13.811886666307032</v>
+      </c>
+      <c r="Z13" s="45">
+        <f t="shared" ca="1" si="7"/>
+        <v>13.221299516785734</v>
+      </c>
+      <c r="AA13" s="45">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AB13" s="45">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AC13" s="45">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AD13" s="45">
+        <f t="shared" ca="1" si="7"/>
+        <v>6.2506398874618299</v>
+      </c>
+      <c r="AE13" s="45">
+        <f t="shared" ca="1" si="7"/>
+        <v>12.087718841839887</v>
+      </c>
+      <c r="AF13" s="45">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AG13" s="45">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AH13" s="45">
+        <f t="shared" ca="1" si="7"/>
+        <v>17.741785544218033</v>
+      </c>
+      <c r="AI13" s="45">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AJ13" s="45">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AK13" s="45">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AL13" s="45">
+        <f t="shared" ca="1" si="7"/>
+        <v>11.190014383048378</v>
+      </c>
+    </row>
+    <row r="14" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A14" s="44"/>
+      <c r="B14" s="45"/>
+      <c r="D14" s="33"/>
+      <c r="G14" s="1">
+        <v>45484</v>
+      </c>
+      <c r="H14">
+        <v>556.48</v>
+      </c>
+      <c r="I14" s="24">
+        <f t="shared" si="2"/>
+        <v>-8.6225326017245196E-3</v>
+      </c>
+      <c r="Q14" s="45"/>
+      <c r="R14" s="45" t="s">
+        <v>124</v>
+      </c>
+      <c r="S14" s="45">
+        <f ca="1">AVERAGE(S10:AL10)</f>
+        <v>2.5783230508274131</v>
+      </c>
+      <c r="T14" s="45"/>
+      <c r="U14" s="45"/>
+      <c r="V14" s="45"/>
+      <c r="W14" s="45"/>
+      <c r="X14" s="45"/>
+      <c r="Y14" s="45"/>
+      <c r="Z14" s="45"/>
+      <c r="AA14" s="45"/>
+      <c r="AB14" s="45"/>
+      <c r="AC14" s="45"/>
+      <c r="AD14" s="45"/>
+      <c r="AE14" s="45"/>
+      <c r="AF14" s="45"/>
+      <c r="AG14" s="45"/>
+      <c r="AH14" s="45"/>
+      <c r="AI14" s="45"/>
+      <c r="AJ14" s="45"/>
+      <c r="AK14" s="45"/>
+      <c r="AL14" s="45"/>
+    </row>
+    <row r="15" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A15" s="44"/>
+      <c r="B15" s="45"/>
+      <c r="D15" s="33"/>
+      <c r="G15" s="1">
+        <v>45485</v>
+      </c>
+      <c r="H15">
+        <v>559.99</v>
+      </c>
+      <c r="I15" s="24">
+        <f>(H15/H14)-1</f>
+        <v>6.3075043128233421E-3</v>
+      </c>
+      <c r="Q15" s="45"/>
+      <c r="R15" s="45" t="s">
+        <v>125</v>
+      </c>
+      <c r="S15" s="45">
+        <f ca="1">AVERAGE(S11:AL11)</f>
+        <v>5.6090375632729774</v>
+      </c>
+      <c r="T15" s="45"/>
+      <c r="U15" s="45"/>
+      <c r="V15" s="45"/>
+      <c r="W15" s="45"/>
+      <c r="X15" s="45"/>
+      <c r="Y15" s="45"/>
+      <c r="Z15" s="45"/>
+      <c r="AA15" s="45"/>
+      <c r="AB15" s="45"/>
+      <c r="AC15" s="45"/>
+      <c r="AD15" s="45"/>
+      <c r="AE15" s="45"/>
+      <c r="AF15" s="45"/>
+      <c r="AG15" s="45"/>
+      <c r="AH15" s="45"/>
+      <c r="AI15" s="45"/>
+      <c r="AJ15" s="45"/>
+      <c r="AK15" s="45"/>
+      <c r="AL15" s="45"/>
+    </row>
+    <row r="16" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A16" s="44"/>
+      <c r="B16" s="45"/>
+      <c r="D16" s="33"/>
+      <c r="G16" s="1">
+        <v>45488</v>
+      </c>
+      <c r="H16">
+        <v>561.53</v>
+      </c>
+      <c r="I16" s="24">
+        <f t="shared" si="2"/>
+        <v>2.7500491080196809E-3</v>
+      </c>
+      <c r="Q16" s="45"/>
+      <c r="R16" s="45" t="s">
+        <v>126</v>
+      </c>
+      <c r="S16">
+        <f ca="1">AVERAGE(S12:AL12)</f>
+        <v>2.5601772928091693</v>
+      </c>
+      <c r="T16" s="45"/>
+      <c r="U16" s="45"/>
+      <c r="V16" s="45"/>
+      <c r="W16" s="45"/>
+      <c r="X16" s="45"/>
+      <c r="Y16" s="45"/>
+      <c r="Z16" s="45"/>
+      <c r="AA16" s="45"/>
+      <c r="AB16" s="45"/>
+      <c r="AC16" s="45"/>
+      <c r="AD16" s="45"/>
+      <c r="AE16" s="45"/>
+      <c r="AF16" s="45"/>
+      <c r="AG16" s="45"/>
+      <c r="AH16" s="45"/>
+      <c r="AI16" s="45"/>
+      <c r="AJ16" s="45"/>
+      <c r="AK16" s="45"/>
+      <c r="AL16" s="45"/>
+    </row>
+    <row r="17" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A17" s="44"/>
+      <c r="B17" s="45"/>
+      <c r="D17" s="33"/>
+      <c r="G17" s="1">
+        <v>45489</v>
+      </c>
+      <c r="H17">
+        <v>564.86</v>
+      </c>
+      <c r="I17" s="24">
+        <f t="shared" si="2"/>
+        <v>5.930226345876477E-3</v>
+      </c>
+      <c r="Q17" s="45"/>
+      <c r="R17" s="45" t="s">
+        <v>127</v>
+      </c>
+      <c r="S17">
+        <f ca="1">AVERAGE(S13:AL13)</f>
+        <v>5.6261547613348002</v>
+      </c>
+      <c r="T17" s="45"/>
+      <c r="U17" s="45"/>
+      <c r="V17" s="45"/>
+      <c r="W17" s="45"/>
+      <c r="X17" s="45"/>
+      <c r="Y17" s="45"/>
+      <c r="Z17" s="45"/>
+      <c r="AA17" s="45"/>
+      <c r="AB17" s="45"/>
+      <c r="AC17" s="45"/>
+      <c r="AD17" s="45"/>
+      <c r="AE17" s="45"/>
+      <c r="AF17" s="45"/>
+      <c r="AG17" s="45"/>
+      <c r="AH17" s="45"/>
+      <c r="AI17" s="45"/>
+      <c r="AJ17" s="45"/>
+      <c r="AK17" s="45"/>
+      <c r="AL17" s="45"/>
+    </row>
+    <row r="18" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A18" s="48"/>
+      <c r="B18" s="45"/>
+      <c r="D18" s="33"/>
+      <c r="G18" s="1">
+        <v>45490</v>
+      </c>
+      <c r="H18">
+        <v>556.94000000000005</v>
+      </c>
+      <c r="I18" s="24">
+        <f t="shared" si="2"/>
+        <v>-1.4021173388096053E-2</v>
+      </c>
+      <c r="Q18" s="45"/>
+      <c r="R18" s="45" t="s">
+        <v>128</v>
+      </c>
+      <c r="S18" s="45">
+        <f ca="1">S14*EXP(-$B$8*$B$7)</f>
+        <v>2.5755109393063123</v>
+      </c>
+      <c r="T18" s="45"/>
+      <c r="U18" s="45"/>
+      <c r="V18" s="45"/>
+      <c r="W18" s="45"/>
+      <c r="X18" s="45"/>
+      <c r="Y18" s="45"/>
+      <c r="Z18" s="45"/>
+      <c r="AA18" s="45"/>
+      <c r="AB18" s="45"/>
+      <c r="AC18" s="45"/>
+      <c r="AD18" s="45"/>
+      <c r="AE18" s="45"/>
+      <c r="AF18" s="45"/>
+      <c r="AG18" s="45"/>
+      <c r="AH18" s="45"/>
+      <c r="AI18" s="45"/>
+      <c r="AJ18" s="45"/>
+      <c r="AK18" s="45"/>
+      <c r="AL18" s="45"/>
+    </row>
+    <row r="19" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A19" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="B19" s="42">
+        <f ca="1">S18</f>
+        <v>2.5755109393063123</v>
+      </c>
+      <c r="D19" s="33"/>
+      <c r="G19" s="1">
+        <v>45491</v>
+      </c>
+      <c r="H19">
+        <v>552.66</v>
+      </c>
+      <c r="I19" s="24">
+        <f t="shared" si="2"/>
+        <v>-7.6848493554064756E-3</v>
+      </c>
+      <c r="Q19" s="45"/>
+      <c r="R19" s="45" t="s">
+        <v>129</v>
+      </c>
+      <c r="S19" s="45">
+        <f ca="1">S15*EXP(-$B$8*$B$7)</f>
+        <v>5.6029199283439857</v>
+      </c>
+      <c r="T19" s="45"/>
+      <c r="U19" s="45"/>
+      <c r="V19" s="45"/>
+      <c r="W19" s="45"/>
+      <c r="X19" s="45"/>
+      <c r="Y19" s="45"/>
+      <c r="Z19" s="45"/>
+      <c r="AA19" s="45"/>
+      <c r="AB19" s="45"/>
+      <c r="AC19" s="45"/>
+      <c r="AD19" s="45"/>
+      <c r="AE19" s="45"/>
+      <c r="AF19" s="45"/>
+      <c r="AG19" s="45"/>
+      <c r="AH19" s="45"/>
+      <c r="AI19" s="45"/>
+      <c r="AJ19" s="45"/>
+      <c r="AK19" s="45"/>
+      <c r="AL19" s="45"/>
+    </row>
+    <row r="20" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A20" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="B20" s="42">
+        <f ca="1">S19</f>
+        <v>5.6029199283439857</v>
+      </c>
+      <c r="D20" s="33"/>
+      <c r="G20" s="1">
+        <v>45492</v>
+      </c>
+      <c r="H20">
+        <v>548.99</v>
+      </c>
+      <c r="I20" s="24">
+        <f t="shared" si="2"/>
+        <v>-6.6406108638221717E-3</v>
+      </c>
+      <c r="Q20" s="45"/>
+      <c r="R20" s="45" t="s">
+        <v>130</v>
+      </c>
+      <c r="S20" s="45">
+        <f ca="1">S16*EXP(-$B$8*$B$7)</f>
+        <v>2.5573849724058517</v>
+      </c>
+      <c r="T20" s="45"/>
+      <c r="U20" s="45"/>
+      <c r="V20" s="45"/>
+      <c r="W20" s="45"/>
+      <c r="X20" s="45"/>
+      <c r="Y20" s="45"/>
+      <c r="Z20" s="45"/>
+      <c r="AA20" s="45"/>
+      <c r="AB20" s="45"/>
+      <c r="AC20" s="45"/>
+      <c r="AD20" s="45"/>
+      <c r="AE20" s="45"/>
+      <c r="AF20" s="45"/>
+      <c r="AG20" s="45"/>
+      <c r="AH20" s="45"/>
+      <c r="AI20" s="45"/>
+      <c r="AJ20" s="45"/>
+      <c r="AK20" s="45"/>
+      <c r="AL20" s="45"/>
+    </row>
+    <row r="21" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="D21" s="33"/>
+      <c r="G21" s="1">
+        <v>45495</v>
+      </c>
+      <c r="H21">
+        <v>554.65</v>
+      </c>
+      <c r="I21" s="24">
+        <f t="shared" si="2"/>
+        <v>1.0309841709320589E-2</v>
+      </c>
+      <c r="Q21" s="45"/>
+      <c r="R21" s="45" t="s">
+        <v>131</v>
+      </c>
+      <c r="S21" s="45">
+        <f ca="1">S17*EXP(-$B$8*$B$7)</f>
+        <v>5.620018457112268</v>
+      </c>
+      <c r="T21" s="45"/>
+      <c r="U21" s="45"/>
+      <c r="V21" s="45"/>
+      <c r="W21" s="45"/>
+      <c r="X21" s="45"/>
+      <c r="Y21" s="45"/>
+      <c r="Z21" s="45"/>
+      <c r="AA21" s="45"/>
+      <c r="AB21" s="45"/>
+      <c r="AC21" s="45"/>
+      <c r="AD21" s="45"/>
+      <c r="AE21" s="45"/>
+      <c r="AF21" s="45"/>
+      <c r="AG21" s="45"/>
+      <c r="AH21" s="45"/>
+      <c r="AI21" s="45"/>
+      <c r="AJ21" s="45"/>
+      <c r="AK21" s="45"/>
+      <c r="AL21" s="45"/>
+    </row>
+    <row r="22" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D22" s="33"/>
+      <c r="G22" s="1">
+        <v>45496</v>
+      </c>
+      <c r="H22">
+        <v>553.78</v>
+      </c>
+      <c r="I22" s="24">
+        <f t="shared" si="2"/>
+        <v>-1.5685567474984508E-3</v>
+      </c>
+      <c r="Q22" s="45"/>
+      <c r="R22" s="45"/>
+      <c r="S22" s="45"/>
+      <c r="T22" s="45"/>
+      <c r="U22" s="45"/>
+      <c r="V22" s="45"/>
+      <c r="W22" s="45"/>
+      <c r="X22" s="45"/>
+      <c r="Y22" s="45"/>
+      <c r="Z22" s="45"/>
+      <c r="AA22" s="45"/>
+      <c r="AB22" s="45"/>
+      <c r="AC22" s="45"/>
+      <c r="AD22" s="45"/>
+      <c r="AE22" s="45"/>
+      <c r="AF22" s="45"/>
+      <c r="AG22" s="45"/>
+      <c r="AH22" s="45"/>
+      <c r="AI22" s="45"/>
+      <c r="AJ22" s="45"/>
+      <c r="AK22" s="45"/>
+      <c r="AL22" s="45"/>
+    </row>
+    <row r="23" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A23" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="B23" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="C23" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="D23" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="E23" s="43"/>
+      <c r="F23" s="43"/>
+      <c r="G23" s="1">
+        <v>45497</v>
+      </c>
+      <c r="H23">
+        <v>541.23</v>
+      </c>
+      <c r="I23" s="24">
+        <f t="shared" si="2"/>
+        <v>-2.26624291234786E-2</v>
+      </c>
+      <c r="Q23" s="45"/>
+      <c r="R23" s="45"/>
+      <c r="S23" s="45"/>
+      <c r="T23" s="45"/>
+      <c r="U23" s="45"/>
+      <c r="V23" s="45"/>
+      <c r="W23" s="45"/>
+      <c r="X23" s="45"/>
+      <c r="Y23" s="45"/>
+      <c r="Z23" s="45"/>
+      <c r="AA23" s="45"/>
+      <c r="AB23" s="45"/>
+      <c r="AC23" s="45"/>
+      <c r="AD23" s="45"/>
+      <c r="AE23" s="45"/>
+      <c r="AF23" s="45"/>
+      <c r="AG23" s="45"/>
+      <c r="AH23" s="45"/>
+      <c r="AI23" s="45"/>
+      <c r="AJ23" s="45"/>
+      <c r="AK23" s="45"/>
+      <c r="AL23" s="45"/>
+    </row>
+    <row r="24" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A24" s="31">
+        <v>45833</v>
+      </c>
+      <c r="B24" t="s">
+        <v>59</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24" s="33">
+        <f>SUM(C24:C30)</f>
+        <v>5</v>
+      </c>
+      <c r="G24" s="1">
+        <v>45498</v>
+      </c>
+      <c r="H24">
+        <v>538.41</v>
+      </c>
+      <c r="I24" s="24">
+        <f t="shared" si="2"/>
+        <v>-5.210354193226685E-3</v>
+      </c>
+      <c r="Q24" s="45"/>
+      <c r="R24" s="45"/>
+      <c r="S24" s="45"/>
+      <c r="T24" s="45"/>
+      <c r="U24" s="45"/>
+      <c r="V24" s="45"/>
+      <c r="W24" s="45"/>
+      <c r="X24" s="45"/>
+      <c r="Y24" s="45"/>
+      <c r="Z24" s="45"/>
+      <c r="AA24" s="45"/>
+      <c r="AB24" s="45"/>
+      <c r="AC24" s="45"/>
+      <c r="AD24" s="45"/>
+      <c r="AE24" s="45"/>
+      <c r="AF24" s="45"/>
+      <c r="AG24" s="45"/>
+      <c r="AH24" s="45"/>
+      <c r="AI24" s="45"/>
+      <c r="AJ24" s="45"/>
+      <c r="AK24" s="45"/>
+      <c r="AL24" s="45"/>
+    </row>
+    <row r="25" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A25" s="31">
+        <v>45834</v>
+      </c>
+      <c r="B25" t="s">
+        <v>60</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25" s="33"/>
+      <c r="G25" s="1">
+        <v>45499</v>
+      </c>
+      <c r="H25">
+        <v>544.44000000000005</v>
+      </c>
+      <c r="I25" s="24">
+        <f t="shared" si="2"/>
+        <v>1.119964339443924E-2</v>
+      </c>
+      <c r="Q25" s="45"/>
+      <c r="R25" s="45"/>
+      <c r="S25" s="45"/>
+      <c r="T25" s="45"/>
+      <c r="U25" s="45"/>
+      <c r="V25" s="45"/>
+      <c r="W25" s="45"/>
+      <c r="X25" s="45"/>
+      <c r="Y25" s="45"/>
+      <c r="Z25" s="45"/>
+      <c r="AA25" s="45"/>
+      <c r="AB25" s="45"/>
+      <c r="AC25" s="45"/>
+      <c r="AD25" s="45"/>
+      <c r="AE25" s="45"/>
+      <c r="AF25" s="45"/>
+      <c r="AG25" s="45"/>
+      <c r="AH25" s="45"/>
+      <c r="AI25" s="45"/>
+      <c r="AJ25" s="45"/>
+      <c r="AK25" s="45"/>
+      <c r="AL25" s="45"/>
+    </row>
+    <row r="26" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A26" s="31">
+        <v>45835</v>
+      </c>
+      <c r="B26" t="s">
+        <v>61</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26" s="33"/>
+      <c r="G26" s="1">
+        <v>45502</v>
+      </c>
+      <c r="H26">
+        <v>544.76</v>
+      </c>
+      <c r="I26" s="24">
+        <f t="shared" si="2"/>
+        <v>5.8775990008075318E-4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A27" s="31">
+        <v>45836</v>
+      </c>
+      <c r="B27" t="s">
+        <v>62</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27" s="33"/>
+      <c r="G27" s="1">
+        <v>45503</v>
+      </c>
+      <c r="H27">
+        <v>542</v>
+      </c>
+      <c r="I27" s="24">
+        <f t="shared" si="2"/>
+        <v>-5.0664512812981233E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A28" s="31">
+        <v>45837</v>
+      </c>
+      <c r="B28" t="s">
+        <v>63</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28" s="33"/>
+      <c r="G28" s="1">
+        <v>45504</v>
+      </c>
+      <c r="H28">
+        <v>550.80999999999995</v>
+      </c>
+      <c r="I28" s="24">
+        <f t="shared" si="2"/>
+        <v>1.6254612546125369E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A29" s="31">
+        <v>45838</v>
+      </c>
+      <c r="B29" t="s">
+        <v>64</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29" s="33"/>
+      <c r="G29" s="1">
+        <v>45505</v>
+      </c>
+      <c r="H29">
+        <v>543.01</v>
+      </c>
+      <c r="I29" s="24">
+        <f t="shared" si="2"/>
+        <v>-1.4160962945480193E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="32">
+        <v>45839</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C30" s="7">
+        <v>1</v>
+      </c>
+      <c r="D30" s="35"/>
+      <c r="G30" s="1">
+        <v>45506</v>
+      </c>
+      <c r="H30">
+        <v>532.9</v>
+      </c>
+      <c r="I30" s="24">
+        <f t="shared" si="2"/>
+        <v>-1.8618441649325135E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="D31" s="33"/>
+      <c r="G31" s="1">
+        <v>45509</v>
+      </c>
+      <c r="H31">
+        <v>517.38</v>
+      </c>
+      <c r="I31" s="24">
+        <f t="shared" si="2"/>
+        <v>-2.9123662976168085E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="D32" s="33"/>
+      <c r="G32" s="1">
+        <v>45510</v>
+      </c>
+      <c r="H32">
+        <v>522.15</v>
+      </c>
+      <c r="I32" s="24">
+        <f t="shared" si="2"/>
+        <v>9.2195291661834045E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D33" s="33"/>
+      <c r="G33" s="1">
+        <v>45511</v>
+      </c>
+      <c r="H33">
+        <v>518.66</v>
+      </c>
+      <c r="I33" s="24">
+        <f t="shared" si="2"/>
+        <v>-6.6839030929809473E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D34" s="33"/>
+      <c r="G34" s="1">
+        <v>45512</v>
+      </c>
+      <c r="H34">
+        <v>530.65</v>
+      </c>
+      <c r="I34" s="24">
+        <f t="shared" si="2"/>
+        <v>2.3117263718042569E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D35" s="33"/>
+      <c r="G35" s="1">
+        <v>45513</v>
+      </c>
+      <c r="H35">
+        <v>532.99</v>
+      </c>
+      <c r="I35" s="24">
+        <f t="shared" si="2"/>
+        <v>4.409686233864285E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D36" s="33"/>
+      <c r="G36" s="1">
+        <v>45516</v>
+      </c>
+      <c r="H36">
+        <v>533.27</v>
+      </c>
+      <c r="I36" s="24">
+        <f t="shared" si="2"/>
+        <v>5.2533818645739139E-4</v>
+      </c>
+    </row>
+    <row r="37" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D37" s="33"/>
+      <c r="G37" s="1">
+        <v>45517</v>
+      </c>
+      <c r="H37">
+        <v>542.04</v>
+      </c>
+      <c r="I37" s="24">
+        <f t="shared" si="2"/>
+        <v>1.6445702927222472E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="G38" s="1">
+        <v>45518</v>
+      </c>
+      <c r="H38">
+        <v>543.75</v>
+      </c>
+      <c r="I38" s="24">
+        <f t="shared" si="2"/>
+        <v>3.1547487270313646E-3</v>
+      </c>
+    </row>
+    <row r="39" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="G39" s="1">
+        <v>45519</v>
+      </c>
+      <c r="H39">
+        <v>553.07000000000005</v>
+      </c>
+      <c r="I39" s="24">
+        <f t="shared" si="2"/>
+        <v>1.714022988505759E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="G40" s="1">
+        <v>45520</v>
+      </c>
+      <c r="H40">
+        <v>554.30999999999995</v>
+      </c>
+      <c r="I40" s="24">
+        <f t="shared" si="2"/>
+        <v>2.2420308460049387E-3</v>
+      </c>
+    </row>
+    <row r="41" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="G41" s="1">
+        <v>45523</v>
+      </c>
+      <c r="H41">
+        <v>559.61</v>
+      </c>
+      <c r="I41" s="24">
+        <f t="shared" si="2"/>
+        <v>9.5614367411738233E-3</v>
+      </c>
+    </row>
+    <row r="42" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="G42" s="1">
+        <v>45524</v>
+      </c>
+      <c r="H42">
+        <v>558.70000000000005</v>
+      </c>
+      <c r="I42" s="24">
+        <f t="shared" si="2"/>
+        <v>-1.6261324851235548E-3</v>
+      </c>
+    </row>
+    <row r="43" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="G43" s="1">
+        <v>45525</v>
+      </c>
+      <c r="H43">
+        <v>560.62</v>
+      </c>
+      <c r="I43" s="24">
+        <f t="shared" si="2"/>
+        <v>3.4365491319132691E-3</v>
+      </c>
+    </row>
+    <row r="44" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="G44" s="1">
+        <v>45526</v>
+      </c>
+      <c r="H44">
+        <v>556.22</v>
+      </c>
+      <c r="I44" s="24">
+        <f t="shared" si="2"/>
+        <v>-7.8484534979129661E-3</v>
+      </c>
+    </row>
+    <row r="45" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="G45" s="1">
+        <v>45527</v>
+      </c>
+      <c r="H45">
+        <v>562.13</v>
+      </c>
+      <c r="I45" s="24">
+        <f t="shared" si="2"/>
+        <v>1.0625292150587828E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="G46" s="1">
+        <v>45530</v>
+      </c>
+      <c r="H46">
+        <v>560.79</v>
+      </c>
+      <c r="I46" s="24">
+        <f t="shared" si="2"/>
+        <v>-2.3837902264601807E-3</v>
+      </c>
+    </row>
+    <row r="47" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="G47" s="1">
+        <v>45531</v>
+      </c>
+      <c r="H47">
+        <v>561.55999999999995</v>
+      </c>
+      <c r="I47" s="24">
+        <f t="shared" si="2"/>
+        <v>1.3730630004100686E-3</v>
+      </c>
+    </row>
+    <row r="48" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="G48" s="1">
+        <v>45532</v>
+      </c>
+      <c r="H48">
+        <v>558.29999999999995</v>
+      </c>
+      <c r="I48" s="24">
+        <f t="shared" si="2"/>
+        <v>-5.8052567846712533E-3</v>
+      </c>
+    </row>
+    <row r="49" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G49" s="1">
+        <v>45533</v>
+      </c>
+      <c r="H49">
+        <v>558.35</v>
+      </c>
+      <c r="I49" s="24">
+        <f t="shared" si="2"/>
+        <v>8.9557585527533234E-5</v>
+      </c>
+    </row>
+    <row r="50" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G50" s="1">
+        <v>45534</v>
+      </c>
+      <c r="H50">
+        <v>563.67999999999995</v>
+      </c>
+      <c r="I50" s="24">
+        <f t="shared" si="2"/>
+        <v>9.5459837019788996E-3</v>
+      </c>
+    </row>
+    <row r="51" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G51" s="1">
+        <v>45538</v>
+      </c>
+      <c r="H51">
+        <v>552.08000000000004</v>
+      </c>
+      <c r="I51" s="24">
+        <f t="shared" si="2"/>
+        <v>-2.057905194436549E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G52" s="1">
+        <v>45539</v>
+      </c>
+      <c r="H52">
+        <v>550.95000000000005</v>
+      </c>
+      <c r="I52" s="24">
+        <f t="shared" si="2"/>
+        <v>-2.0468048108969183E-3</v>
+      </c>
+    </row>
+    <row r="53" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G53" s="1">
+        <v>45540</v>
+      </c>
+      <c r="H53">
+        <v>549.61</v>
+      </c>
+      <c r="I53" s="24">
+        <f t="shared" si="2"/>
+        <v>-2.432162628187684E-3</v>
+      </c>
+    </row>
+    <row r="54" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G54" s="1">
+        <v>45541</v>
+      </c>
+      <c r="H54">
+        <v>540.36</v>
+      </c>
+      <c r="I54" s="24">
+        <f t="shared" si="2"/>
+        <v>-1.6830115900365761E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G55" s="1">
+        <v>45544</v>
+      </c>
+      <c r="H55">
+        <v>546.41</v>
+      </c>
+      <c r="I55" s="24">
+        <f t="shared" si="2"/>
+        <v>1.1196239544007724E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G56" s="1">
+        <v>45545</v>
+      </c>
+      <c r="H56">
+        <v>548.79</v>
+      </c>
+      <c r="I56" s="24">
+        <f t="shared" si="2"/>
+        <v>4.3557035925403387E-3</v>
+      </c>
+    </row>
+    <row r="57" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G57" s="1">
+        <v>45546</v>
+      </c>
+      <c r="H57">
+        <v>554.41999999999996</v>
+      </c>
+      <c r="I57" s="24">
+        <f t="shared" si="2"/>
+        <v>1.0258933289600813E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G58" s="1">
+        <v>45547</v>
+      </c>
+      <c r="H58">
+        <v>559.09</v>
+      </c>
+      <c r="I58" s="24">
+        <f t="shared" si="2"/>
+        <v>8.4232170556619579E-3</v>
+      </c>
+    </row>
+    <row r="59" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G59" s="1">
+        <v>45548</v>
+      </c>
+      <c r="H59">
+        <v>562.01</v>
+      </c>
+      <c r="I59" s="24">
+        <f t="shared" si="2"/>
+        <v>5.2227727199556373E-3</v>
+      </c>
+    </row>
+    <row r="60" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G60" s="1">
+        <v>45551</v>
+      </c>
+      <c r="H60">
+        <v>562.84</v>
+      </c>
+      <c r="I60" s="24">
+        <f t="shared" si="2"/>
+        <v>1.4768420490738343E-3</v>
+      </c>
+    </row>
+    <row r="61" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G61" s="1">
+        <v>45552</v>
+      </c>
+      <c r="H61">
+        <v>563.07000000000005</v>
+      </c>
+      <c r="I61" s="24">
+        <f t="shared" si="2"/>
+        <v>4.0864188757017139E-4</v>
+      </c>
+    </row>
+    <row r="62" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G62" s="1">
+        <v>45553</v>
+      </c>
+      <c r="H62">
+        <v>561.4</v>
+      </c>
+      <c r="I62" s="24">
+        <f t="shared" si="2"/>
+        <v>-2.965883460315899E-3</v>
+      </c>
+    </row>
+    <row r="63" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G63" s="1">
+        <v>45554</v>
+      </c>
+      <c r="H63">
+        <v>570.98</v>
+      </c>
+      <c r="I63" s="24">
+        <f t="shared" si="2"/>
+        <v>1.7064481653010333E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G64" s="1">
+        <v>45555</v>
+      </c>
+      <c r="H64">
+        <v>568.25</v>
+      </c>
+      <c r="I64" s="24">
+        <f t="shared" si="2"/>
+        <v>-4.7812532838278354E-3</v>
+      </c>
+    </row>
+    <row r="65" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G65" s="1">
+        <v>45558</v>
+      </c>
+      <c r="H65">
+        <v>569.66999999999996</v>
+      </c>
+      <c r="I65" s="24">
+        <f t="shared" si="2"/>
+        <v>2.4989001319841719E-3</v>
+      </c>
+    </row>
+    <row r="66" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G66" s="1">
+        <v>45559</v>
+      </c>
+      <c r="H66">
+        <v>571.29999999999995</v>
+      </c>
+      <c r="I66" s="24">
+        <f t="shared" si="2"/>
+        <v>2.8613056681938698E-3</v>
+      </c>
+    </row>
+    <row r="67" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G67" s="1">
+        <v>45560</v>
+      </c>
+      <c r="H67">
+        <v>570.04</v>
+      </c>
+      <c r="I67" s="24">
+        <f t="shared" si="2"/>
+        <v>-2.205496236653226E-3</v>
+      </c>
+    </row>
+    <row r="68" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G68" s="1">
+        <v>45561</v>
+      </c>
+      <c r="H68">
+        <v>572.29999999999995</v>
+      </c>
+      <c r="I68" s="24">
+        <f t="shared" si="2"/>
+        <v>3.9646340607677466E-3</v>
+      </c>
+    </row>
+    <row r="69" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G69" s="1">
+        <v>45562</v>
+      </c>
+      <c r="H69">
+        <v>571.47</v>
+      </c>
+      <c r="I69" s="24">
+        <f t="shared" ref="I69:I132" si="8">(H69/H68)-1</f>
+        <v>-1.450288310326675E-3</v>
+      </c>
+    </row>
+    <row r="70" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G70" s="1">
+        <v>45565</v>
+      </c>
+      <c r="H70">
+        <v>573.76</v>
+      </c>
+      <c r="I70" s="24">
+        <f t="shared" si="8"/>
+        <v>4.007209477312923E-3</v>
+      </c>
+    </row>
+    <row r="71" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G71" s="1">
+        <v>45566</v>
+      </c>
+      <c r="H71">
+        <v>568.62</v>
+      </c>
+      <c r="I71" s="24">
+        <f t="shared" si="8"/>
+        <v>-8.9584495259341645E-3</v>
+      </c>
+    </row>
+    <row r="72" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G72" s="1">
+        <v>45567</v>
+      </c>
+      <c r="H72">
+        <v>568.86</v>
+      </c>
+      <c r="I72" s="24">
+        <f t="shared" si="8"/>
+        <v>4.2207449614850567E-4</v>
+      </c>
+    </row>
+    <row r="73" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G73" s="1">
+        <v>45568</v>
+      </c>
+      <c r="H73">
+        <v>567.82000000000005</v>
+      </c>
+      <c r="I73" s="24">
+        <f t="shared" si="8"/>
+        <v>-1.828217839187074E-3</v>
+      </c>
+    </row>
+    <row r="74" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G74" s="1">
+        <v>45569</v>
+      </c>
+      <c r="H74">
+        <v>572.98</v>
+      </c>
+      <c r="I74" s="24">
+        <f t="shared" si="8"/>
+        <v>9.087386847944634E-3</v>
+      </c>
+    </row>
+    <row r="75" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G75" s="1">
+        <v>45572</v>
+      </c>
+      <c r="H75">
+        <v>567.79999999999995</v>
+      </c>
+      <c r="I75" s="24">
+        <f t="shared" si="8"/>
+        <v>-9.0404551642292441E-3</v>
+      </c>
+    </row>
+    <row r="76" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G76" s="1">
+        <v>45573</v>
+      </c>
+      <c r="H76">
+        <v>573.16999999999996</v>
+      </c>
+      <c r="I76" s="24">
+        <f t="shared" si="8"/>
+        <v>9.4575554772806658E-3</v>
+      </c>
+    </row>
+    <row r="77" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G77" s="1">
+        <v>45574</v>
+      </c>
+      <c r="H77">
+        <v>577.14</v>
+      </c>
+      <c r="I77" s="24">
+        <f t="shared" si="8"/>
+        <v>6.9263918209256925E-3</v>
+      </c>
+    </row>
+    <row r="78" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G78" s="1">
+        <v>45575</v>
+      </c>
+      <c r="H78">
+        <v>576.13</v>
+      </c>
+      <c r="I78" s="24">
+        <f t="shared" si="8"/>
+        <v>-1.7500086634092415E-3</v>
+      </c>
+    </row>
+    <row r="79" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G79" s="1">
+        <v>45576</v>
+      </c>
+      <c r="H79">
+        <v>579.58000000000004</v>
+      </c>
+      <c r="I79" s="24">
+        <f t="shared" si="8"/>
+        <v>5.9882318226789355E-3</v>
+      </c>
+    </row>
+    <row r="80" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G80" s="1">
+        <v>45579</v>
+      </c>
+      <c r="H80">
+        <v>584.32000000000005</v>
+      </c>
+      <c r="I80" s="24">
+        <f t="shared" si="8"/>
+        <v>8.178336036440248E-3</v>
+      </c>
+    </row>
+    <row r="81" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G81" s="1">
+        <v>45580</v>
+      </c>
+      <c r="H81">
+        <v>579.78</v>
+      </c>
+      <c r="I81" s="24">
+        <f t="shared" si="8"/>
+        <v>-7.7697152245346235E-3</v>
+      </c>
+    </row>
+    <row r="82" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G82" s="1">
+        <v>45581</v>
+      </c>
+      <c r="H82">
+        <v>582.29999999999995</v>
+      </c>
+      <c r="I82" s="24">
+        <f t="shared" si="8"/>
+        <v>4.3464762496119302E-3</v>
+      </c>
+    </row>
+    <row r="83" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G83" s="1">
+        <v>45582</v>
+      </c>
+      <c r="H83">
+        <v>582.35</v>
+      </c>
+      <c r="I83" s="24">
+        <f t="shared" si="8"/>
+        <v>8.586639189434031E-5</v>
+      </c>
+    </row>
+    <row r="84" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G84" s="1">
+        <v>45583</v>
+      </c>
+      <c r="H84">
+        <v>584.59</v>
+      </c>
+      <c r="I84" s="24">
+        <f t="shared" si="8"/>
+        <v>3.8464840731518013E-3</v>
+      </c>
+    </row>
+    <row r="85" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G85" s="1">
+        <v>45586</v>
+      </c>
+      <c r="H85">
+        <v>583.63</v>
+      </c>
+      <c r="I85" s="24">
+        <f t="shared" si="8"/>
+        <v>-1.6421765681932099E-3</v>
+      </c>
+    </row>
+    <row r="86" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G86" s="1">
+        <v>45587</v>
+      </c>
+      <c r="H86">
+        <v>583.32000000000005</v>
+      </c>
+      <c r="I86" s="24">
+        <f t="shared" si="8"/>
+        <v>-5.3115843942219687E-4</v>
+      </c>
+    </row>
+    <row r="87" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G87" s="1">
+        <v>45588</v>
+      </c>
+      <c r="H87">
+        <v>577.99</v>
+      </c>
+      <c r="I87" s="24">
+        <f t="shared" si="8"/>
+        <v>-9.1373517108963576E-3</v>
+      </c>
+    </row>
+    <row r="88" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G88" s="1">
+        <v>45589</v>
+      </c>
+      <c r="H88">
+        <v>579.24</v>
+      </c>
+      <c r="I88" s="24">
+        <f t="shared" si="8"/>
+        <v>2.1626671741725723E-3</v>
+      </c>
+    </row>
+    <row r="89" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G89" s="1">
+        <v>45590</v>
+      </c>
+      <c r="H89">
+        <v>579.04</v>
+      </c>
+      <c r="I89" s="24">
+        <f t="shared" si="8"/>
+        <v>-3.4528002209799347E-4</v>
+      </c>
+    </row>
+    <row r="90" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G90" s="1">
+        <v>45593</v>
+      </c>
+      <c r="H90">
+        <v>580.83000000000004</v>
+      </c>
+      <c r="I90" s="24">
+        <f t="shared" si="8"/>
+        <v>3.0913235700471553E-3</v>
+      </c>
+    </row>
+    <row r="91" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G91" s="1">
+        <v>45594</v>
+      </c>
+      <c r="H91">
+        <v>581.77</v>
+      </c>
+      <c r="I91" s="24">
+        <f t="shared" si="8"/>
+        <v>1.6183737065922355E-3</v>
+      </c>
+    </row>
+    <row r="92" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G92" s="1">
+        <v>45595</v>
+      </c>
+      <c r="H92">
+        <v>580.01</v>
+      </c>
+      <c r="I92" s="24">
+        <f t="shared" si="8"/>
+        <v>-3.0252505285593978E-3</v>
+      </c>
+    </row>
+    <row r="93" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G93" s="1">
+        <v>45596</v>
+      </c>
+      <c r="H93">
+        <v>568.64</v>
+      </c>
+      <c r="I93" s="24">
+        <f t="shared" si="8"/>
+        <v>-1.9603110291201875E-2</v>
+      </c>
+    </row>
+    <row r="94" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G94" s="1">
+        <v>45597</v>
+      </c>
+      <c r="H94">
+        <v>571.04</v>
+      </c>
+      <c r="I94" s="24">
+        <f t="shared" si="8"/>
+        <v>4.2205965109736177E-3</v>
+      </c>
+    </row>
+    <row r="95" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G95" s="1">
+        <v>45600</v>
+      </c>
+      <c r="H95">
+        <v>569.80999999999995</v>
+      </c>
+      <c r="I95" s="24">
+        <f t="shared" si="8"/>
+        <v>-2.1539646959932712E-3</v>
+      </c>
+    </row>
+    <row r="96" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G96" s="1">
+        <v>45601</v>
+      </c>
+      <c r="H96">
+        <v>576.70000000000005</v>
+      </c>
+      <c r="I96" s="24">
+        <f t="shared" si="8"/>
+        <v>1.2091749881539604E-2</v>
+      </c>
+    </row>
+    <row r="97" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G97" s="1">
+        <v>45602</v>
+      </c>
+      <c r="H97">
+        <v>591.04</v>
+      </c>
+      <c r="I97" s="24">
+        <f t="shared" si="8"/>
+        <v>2.4865614704352224E-2</v>
+      </c>
+    </row>
+    <row r="98" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G98" s="1">
+        <v>45603</v>
+      </c>
+      <c r="H98">
+        <v>595.61</v>
+      </c>
+      <c r="I98" s="24">
+        <f t="shared" si="8"/>
+        <v>7.7321331889550482E-3</v>
+      </c>
+    </row>
+    <row r="99" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G99" s="1">
+        <v>45604</v>
+      </c>
+      <c r="H99">
+        <v>598.19000000000005</v>
+      </c>
+      <c r="I99" s="24">
+        <f t="shared" si="8"/>
+        <v>4.3316935578652238E-3</v>
+      </c>
+    </row>
+    <row r="100" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G100" s="1">
+        <v>45607</v>
+      </c>
+      <c r="H100">
+        <v>598.76</v>
+      </c>
+      <c r="I100" s="24">
+        <f t="shared" si="8"/>
+        <v>9.5287450475600721E-4</v>
+      </c>
+    </row>
+    <row r="101" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G101" s="1">
+        <v>45608</v>
+      </c>
+      <c r="H101">
+        <v>596.9</v>
+      </c>
+      <c r="I101" s="24">
+        <f t="shared" si="8"/>
+        <v>-3.1064199345314236E-3</v>
+      </c>
+    </row>
+    <row r="102" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G102" s="1">
+        <v>45609</v>
+      </c>
+      <c r="H102">
+        <v>597.19000000000005</v>
+      </c>
+      <c r="I102" s="24">
+        <f t="shared" si="8"/>
+        <v>4.8584352487868188E-4</v>
+      </c>
+    </row>
+    <row r="103" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G103" s="1">
+        <v>45610</v>
+      </c>
+      <c r="H103">
+        <v>593.35</v>
+      </c>
+      <c r="I103" s="24">
+        <f t="shared" si="8"/>
+        <v>-6.4301143689613482E-3</v>
+      </c>
+    </row>
+    <row r="104" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G104" s="1">
+        <v>45611</v>
+      </c>
+      <c r="H104">
+        <v>585.75</v>
+      </c>
+      <c r="I104" s="24">
+        <f t="shared" si="8"/>
+        <v>-1.2808628971096359E-2</v>
+      </c>
+    </row>
+    <row r="105" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G105" s="1">
+        <v>45614</v>
+      </c>
+      <c r="H105">
+        <v>588.15</v>
+      </c>
+      <c r="I105" s="24">
+        <f t="shared" si="8"/>
+        <v>4.0973111395645745E-3</v>
+      </c>
+    </row>
+    <row r="106" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G106" s="1">
+        <v>45615</v>
+      </c>
+      <c r="H106">
+        <v>590.29999999999995</v>
+      </c>
+      <c r="I106" s="24">
+        <f t="shared" si="8"/>
+        <v>3.6555300518574807E-3</v>
+      </c>
+    </row>
+    <row r="107" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G107" s="1">
+        <v>45616</v>
+      </c>
+      <c r="H107">
+        <v>590.5</v>
+      </c>
+      <c r="I107" s="24">
+        <f t="shared" si="8"/>
+        <v>3.3881077418262961E-4</v>
+      </c>
+    </row>
+    <row r="108" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G108" s="1">
+        <v>45617</v>
+      </c>
+      <c r="H108">
+        <v>593.66999999999996</v>
+      </c>
+      <c r="I108" s="24">
+        <f t="shared" si="8"/>
+        <v>5.3683319220998449E-3</v>
+      </c>
+    </row>
+    <row r="109" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G109" s="1">
+        <v>45618</v>
+      </c>
+      <c r="H109">
+        <v>595.51</v>
+      </c>
+      <c r="I109" s="24">
+        <f t="shared" si="8"/>
+        <v>3.0993649670691958E-3</v>
+      </c>
+    </row>
+    <row r="110" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G110" s="1">
+        <v>45621</v>
+      </c>
+      <c r="H110">
+        <v>597.53</v>
+      </c>
+      <c r="I110" s="24">
+        <f t="shared" si="8"/>
+        <v>3.3920505113262944E-3</v>
+      </c>
+    </row>
+    <row r="111" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G111" s="1">
+        <v>45622</v>
+      </c>
+      <c r="H111">
+        <v>600.65</v>
+      </c>
+      <c r="I111" s="24">
+        <f t="shared" si="8"/>
+        <v>5.2214951550548783E-3</v>
+      </c>
+    </row>
+    <row r="112" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G112" s="1">
+        <v>45623</v>
+      </c>
+      <c r="H112">
+        <v>598.83000000000004</v>
+      </c>
+      <c r="I112" s="24">
+        <f t="shared" si="8"/>
+        <v>-3.0300507783234121E-3</v>
+      </c>
+    </row>
+    <row r="113" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G113" s="1">
+        <v>45625</v>
+      </c>
+      <c r="H113">
+        <v>602.54999999999995</v>
+      </c>
+      <c r="I113" s="24">
+        <f t="shared" si="8"/>
+        <v>6.2121136215618211E-3</v>
+      </c>
+    </row>
+    <row r="114" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G114" s="1">
+        <v>45628</v>
+      </c>
+      <c r="H114">
+        <v>603.63</v>
+      </c>
+      <c r="I114" s="24">
+        <f t="shared" si="8"/>
+        <v>1.7923823749066425E-3</v>
+      </c>
+    </row>
+    <row r="115" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G115" s="1">
+        <v>45629</v>
+      </c>
+      <c r="H115">
+        <v>603.91</v>
+      </c>
+      <c r="I115" s="24">
+        <f t="shared" si="8"/>
+        <v>4.6386031178036191E-4</v>
+      </c>
+    </row>
+    <row r="116" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G116" s="1">
+        <v>45630</v>
+      </c>
+      <c r="H116">
+        <v>607.66</v>
+      </c>
+      <c r="I116" s="24">
+        <f t="shared" si="8"/>
+        <v>6.2095345332913165E-3</v>
+      </c>
+    </row>
+    <row r="117" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G117" s="1">
+        <v>45631</v>
+      </c>
+      <c r="H117">
+        <v>606.66</v>
+      </c>
+      <c r="I117" s="24">
+        <f t="shared" si="8"/>
+        <v>-1.6456571108843798E-3</v>
+      </c>
+    </row>
+    <row r="118" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G118" s="1">
+        <v>45632</v>
+      </c>
+      <c r="H118">
+        <v>607.80999999999995</v>
+      </c>
+      <c r="I118" s="24">
+        <f t="shared" si="8"/>
+        <v>1.8956252266508766E-3</v>
+      </c>
+    </row>
+    <row r="119" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G119" s="1">
+        <v>45635</v>
+      </c>
+      <c r="H119">
+        <v>604.67999999999995</v>
+      </c>
+      <c r="I119" s="24">
+        <f t="shared" si="8"/>
+        <v>-5.1496355769072855E-3</v>
+      </c>
+    </row>
+    <row r="120" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G120" s="1">
+        <v>45636</v>
+      </c>
+      <c r="H120">
+        <v>602.79999999999995</v>
+      </c>
+      <c r="I120" s="24">
+        <f t="shared" si="8"/>
+        <v>-3.1090824899120406E-3</v>
+      </c>
+    </row>
+    <row r="121" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G121" s="1">
+        <v>45637</v>
+      </c>
+      <c r="H121">
+        <v>607.46</v>
+      </c>
+      <c r="I121" s="24">
+        <f t="shared" si="8"/>
+        <v>7.7305905773059624E-3</v>
+      </c>
+    </row>
+    <row r="122" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G122" s="1">
+        <v>45638</v>
+      </c>
+      <c r="H122">
+        <v>604.33000000000004</v>
+      </c>
+      <c r="I122" s="24">
+        <f t="shared" si="8"/>
+        <v>-5.1526026405031011E-3</v>
+      </c>
+    </row>
+    <row r="123" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G123" s="1">
+        <v>45639</v>
+      </c>
+      <c r="H123">
+        <v>604.21</v>
+      </c>
+      <c r="I123" s="24">
+        <f t="shared" si="8"/>
+        <v>-1.9856700809162131E-4</v>
+      </c>
+    </row>
+    <row r="124" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G124" s="1">
+        <v>45642</v>
+      </c>
+      <c r="H124">
+        <v>606.79</v>
+      </c>
+      <c r="I124" s="24">
+        <f t="shared" si="8"/>
+        <v>4.2700385627512105E-3</v>
+      </c>
+    </row>
+    <row r="125" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G125" s="1">
+        <v>45643</v>
+      </c>
+      <c r="H125">
+        <v>604.29</v>
+      </c>
+      <c r="I125" s="24">
+        <f t="shared" si="8"/>
+        <v>-4.1200415300186588E-3</v>
+      </c>
+    </row>
+    <row r="126" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G126" s="1">
+        <v>45644</v>
+      </c>
+      <c r="H126">
+        <v>586.28</v>
+      </c>
+      <c r="I126" s="24">
+        <f t="shared" si="8"/>
+        <v>-2.9803571133065199E-2</v>
+      </c>
+    </row>
+    <row r="127" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G127" s="1">
+        <v>45645</v>
+      </c>
+      <c r="H127">
+        <v>586.1</v>
+      </c>
+      <c r="I127" s="24">
+        <f t="shared" si="8"/>
+        <v>-3.0702053626241455E-4</v>
+      </c>
+    </row>
+    <row r="128" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G128" s="1">
+        <v>45646</v>
+      </c>
+      <c r="H128">
+        <v>591.15</v>
+      </c>
+      <c r="I128" s="24">
+        <f t="shared" si="8"/>
+        <v>8.6162770858213555E-3</v>
+      </c>
+    </row>
+    <row r="129" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G129" s="1">
+        <v>45649</v>
+      </c>
+      <c r="H129">
+        <v>594.69000000000005</v>
+      </c>
+      <c r="I129" s="24">
+        <f t="shared" si="8"/>
+        <v>5.9883278355747915E-3</v>
+      </c>
+    </row>
+    <row r="130" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G130" s="1">
+        <v>45650</v>
+      </c>
+      <c r="H130">
+        <v>601.29999999999995</v>
+      </c>
+      <c r="I130" s="24">
+        <f t="shared" si="8"/>
+        <v>1.1115034723973682E-2</v>
+      </c>
+    </row>
+    <row r="131" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G131" s="1">
+        <v>45652</v>
+      </c>
+      <c r="H131">
+        <v>601.34</v>
+      </c>
+      <c r="I131" s="24">
+        <f t="shared" si="8"/>
+        <v>6.6522534508672848E-5</v>
+      </c>
+    </row>
+    <row r="132" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G132" s="1">
+        <v>45653</v>
+      </c>
+      <c r="H132">
+        <v>595.01</v>
+      </c>
+      <c r="I132" s="24">
+        <f t="shared" si="8"/>
+        <v>-1.0526490837130531E-2</v>
+      </c>
+    </row>
+    <row r="133" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G133" s="1">
+        <v>45656</v>
+      </c>
+      <c r="H133">
+        <v>588.22</v>
+      </c>
+      <c r="I133" s="24">
+        <f t="shared" ref="I133:I196" si="9">(H133/H132)-1</f>
+        <v>-1.141157291474082E-2</v>
+      </c>
+    </row>
+    <row r="134" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G134" s="1">
+        <v>45657</v>
+      </c>
+      <c r="H134">
+        <v>586.08000000000004</v>
+      </c>
+      <c r="I134" s="24">
+        <f t="shared" si="9"/>
+        <v>-3.6380945904592732E-3</v>
+      </c>
+    </row>
+    <row r="135" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G135" s="1">
+        <v>45659</v>
+      </c>
+      <c r="H135">
+        <v>584.64</v>
+      </c>
+      <c r="I135" s="24">
+        <f t="shared" si="9"/>
+        <v>-2.4570024570025328E-3</v>
+      </c>
+    </row>
+    <row r="136" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G136" s="1">
+        <v>45660</v>
+      </c>
+      <c r="H136">
+        <v>591.95000000000005</v>
+      </c>
+      <c r="I136" s="24">
+        <f t="shared" si="9"/>
+        <v>1.2503420908593466E-2</v>
+      </c>
+    </row>
+    <row r="137" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G137" s="1">
+        <v>45663</v>
+      </c>
+      <c r="H137">
+        <v>595.36</v>
+      </c>
+      <c r="I137" s="24">
+        <f t="shared" si="9"/>
+        <v>5.7606216741277194E-3</v>
+      </c>
+    </row>
+    <row r="138" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G138" s="1">
+        <v>45664</v>
+      </c>
+      <c r="H138">
+        <v>588.63</v>
+      </c>
+      <c r="I138" s="24">
+        <f t="shared" si="9"/>
+        <v>-1.1304084923407731E-2</v>
+      </c>
+    </row>
+    <row r="139" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G139" s="1">
+        <v>45665</v>
+      </c>
+      <c r="H139">
+        <v>589.49</v>
+      </c>
+      <c r="I139" s="24">
+        <f t="shared" si="9"/>
+        <v>1.4610196558109134E-3</v>
+      </c>
+    </row>
+    <row r="140" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G140" s="1">
+        <v>45667</v>
+      </c>
+      <c r="H140">
+        <v>580.49</v>
+      </c>
+      <c r="I140" s="24">
+        <f t="shared" si="9"/>
+        <v>-1.526743456207913E-2</v>
+      </c>
+    </row>
+    <row r="141" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G141" s="1">
+        <v>45670</v>
+      </c>
+      <c r="H141">
+        <v>581.39</v>
+      </c>
+      <c r="I141" s="24">
+        <f t="shared" si="9"/>
+        <v>1.5504143051559005E-3</v>
+      </c>
+    </row>
+    <row r="142" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G142" s="1">
+        <v>45671</v>
+      </c>
+      <c r="H142">
+        <v>582.19000000000005</v>
+      </c>
+      <c r="I142" s="24">
+        <f t="shared" si="9"/>
+        <v>1.3760126593165278E-3</v>
+      </c>
+    </row>
+    <row r="143" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G143" s="1">
+        <v>45672</v>
+      </c>
+      <c r="H143">
+        <v>592.78</v>
+      </c>
+      <c r="I143" s="24">
+        <f t="shared" si="9"/>
+        <v>1.8189937992751259E-2</v>
+      </c>
+    </row>
+    <row r="144" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G144" s="1">
+        <v>45673</v>
+      </c>
+      <c r="H144">
+        <v>591.64</v>
+      </c>
+      <c r="I144" s="24">
+        <f t="shared" si="9"/>
+        <v>-1.9231418064037387E-3</v>
+      </c>
+    </row>
+    <row r="145" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G145" s="1">
+        <v>45674</v>
+      </c>
+      <c r="H145">
+        <v>597.58000000000004</v>
+      </c>
+      <c r="I145" s="24">
+        <f t="shared" si="9"/>
+        <v>1.0039889121763235E-2</v>
+      </c>
+    </row>
+    <row r="146" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G146" s="1">
+        <v>45678</v>
+      </c>
+      <c r="H146">
+        <v>603.04999999999995</v>
+      </c>
+      <c r="I146" s="24">
+        <f t="shared" si="9"/>
+        <v>9.1535861307270316E-3</v>
+      </c>
+    </row>
+    <row r="147" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G147" s="1">
+        <v>45679</v>
+      </c>
+      <c r="H147">
+        <v>606.44000000000005</v>
+      </c>
+      <c r="I147" s="24">
+        <f t="shared" si="9"/>
+        <v>5.621424425835464E-3</v>
+      </c>
+    </row>
+    <row r="148" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G148" s="1">
+        <v>45680</v>
+      </c>
+      <c r="H148">
+        <v>609.75</v>
+      </c>
+      <c r="I148" s="24">
+        <f t="shared" si="9"/>
+        <v>5.4580832398918311E-3</v>
+      </c>
+    </row>
+    <row r="149" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G149" s="1">
+        <v>45681</v>
+      </c>
+      <c r="H149">
+        <v>607.97</v>
+      </c>
+      <c r="I149" s="24">
+        <f t="shared" si="9"/>
+        <v>-2.9192291922919278E-3</v>
+      </c>
+    </row>
+    <row r="150" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G150" s="1">
+        <v>45684</v>
+      </c>
+      <c r="H150">
+        <v>599.37</v>
+      </c>
+      <c r="I150" s="24">
+        <f t="shared" si="9"/>
+        <v>-1.4145434807638524E-2</v>
+      </c>
+    </row>
+    <row r="151" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G151" s="1">
+        <v>45685</v>
+      </c>
+      <c r="H151">
+        <v>604.52</v>
+      </c>
+      <c r="I151" s="24">
+        <f t="shared" si="9"/>
+        <v>8.5923553064051195E-3</v>
+      </c>
+    </row>
+    <row r="152" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G152" s="1">
+        <v>45686</v>
+      </c>
+      <c r="H152">
+        <v>601.80999999999995</v>
+      </c>
+      <c r="I152" s="24">
+        <f t="shared" si="9"/>
+        <v>-4.4828955204129217E-3</v>
+      </c>
+    </row>
+    <row r="153" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G153" s="1">
+        <v>45687</v>
+      </c>
+      <c r="H153">
+        <v>605.04</v>
+      </c>
+      <c r="I153" s="24">
+        <f t="shared" si="9"/>
+        <v>5.3671424535983725E-3</v>
+      </c>
+    </row>
+    <row r="154" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G154" s="1">
+        <v>45688</v>
+      </c>
+      <c r="H154">
+        <v>601.82000000000005</v>
+      </c>
+      <c r="I154" s="24">
+        <f t="shared" si="9"/>
+        <v>-5.3219621843182408E-3</v>
+      </c>
+    </row>
+    <row r="155" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G155" s="1">
+        <v>45691</v>
+      </c>
+      <c r="H155">
+        <v>597.77</v>
+      </c>
+      <c r="I155" s="24">
+        <f t="shared" si="9"/>
+        <v>-6.7295869196770663E-3</v>
+      </c>
+    </row>
+    <row r="156" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G156" s="1">
+        <v>45692</v>
+      </c>
+      <c r="H156">
+        <v>601.78</v>
+      </c>
+      <c r="I156" s="24">
+        <f t="shared" si="9"/>
+        <v>6.7082657209294183E-3</v>
+      </c>
+    </row>
+    <row r="157" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G157" s="1">
+        <v>45693</v>
+      </c>
+      <c r="H157">
+        <v>604.22</v>
+      </c>
+      <c r="I157" s="24">
+        <f t="shared" si="9"/>
+        <v>4.0546379075410144E-3</v>
+      </c>
+    </row>
+    <row r="158" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G158" s="1">
+        <v>45694</v>
+      </c>
+      <c r="H158">
+        <v>606.32000000000005</v>
+      </c>
+      <c r="I158" s="24">
+        <f t="shared" si="9"/>
+        <v>3.4755552613285889E-3</v>
+      </c>
+    </row>
+    <row r="159" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G159" s="1">
+        <v>45695</v>
+      </c>
+      <c r="H159">
+        <v>600.77</v>
+      </c>
+      <c r="I159" s="24">
+        <f t="shared" si="9"/>
+        <v>-9.1535822667899724E-3</v>
+      </c>
+    </row>
+    <row r="160" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G160" s="1">
+        <v>45698</v>
+      </c>
+      <c r="H160">
+        <v>604.85</v>
+      </c>
+      <c r="I160" s="24">
+        <f t="shared" si="9"/>
+        <v>6.7912845182016568E-3</v>
+      </c>
+    </row>
+    <row r="161" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G161" s="1">
+        <v>45699</v>
+      </c>
+      <c r="H161">
+        <v>605.30999999999995</v>
+      </c>
+      <c r="I161" s="24">
+        <f t="shared" si="9"/>
+        <v>7.6051913697594564E-4</v>
+      </c>
+    </row>
+    <row r="162" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G162" s="1">
+        <v>45700</v>
+      </c>
+      <c r="H162">
+        <v>603.36</v>
+      </c>
+      <c r="I162" s="24">
+        <f t="shared" si="9"/>
+        <v>-3.221489815135925E-3</v>
+      </c>
+    </row>
+    <row r="163" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G163" s="1">
+        <v>45701</v>
+      </c>
+      <c r="H163">
+        <v>609.73</v>
+      </c>
+      <c r="I163" s="24">
+        <f t="shared" si="9"/>
+        <v>1.0557544417926223E-2</v>
+      </c>
+    </row>
+    <row r="164" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G164" s="1">
+        <v>45702</v>
+      </c>
+      <c r="H164">
+        <v>609.70000000000005</v>
+      </c>
+      <c r="I164" s="24">
+        <f t="shared" si="9"/>
+        <v>-4.9202105850132405E-5</v>
+      </c>
+    </row>
+    <row r="165" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G165" s="1">
+        <v>45706</v>
+      </c>
+      <c r="H165">
+        <v>611.49</v>
+      </c>
+      <c r="I165" s="24">
+        <f t="shared" si="9"/>
+        <v>2.9358701000492538E-3</v>
+      </c>
+    </row>
+    <row r="166" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G166" s="1">
+        <v>45707</v>
+      </c>
+      <c r="H166">
+        <v>612.92999999999995</v>
+      </c>
+      <c r="I166" s="24">
+        <f t="shared" si="9"/>
+        <v>2.3549035961338838E-3</v>
+      </c>
+    </row>
+    <row r="167" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G167" s="1">
+        <v>45708</v>
+      </c>
+      <c r="H167">
+        <v>610.38</v>
+      </c>
+      <c r="I167" s="24">
+        <f t="shared" si="9"/>
+        <v>-4.1603445744211598E-3</v>
+      </c>
+    </row>
+    <row r="168" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G168" s="1">
+        <v>45709</v>
+      </c>
+      <c r="H168">
+        <v>599.94000000000005</v>
+      </c>
+      <c r="I168" s="24">
+        <f t="shared" si="9"/>
+        <v>-1.7104099085815339E-2</v>
+      </c>
+    </row>
+    <row r="169" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G169" s="1">
+        <v>45712</v>
+      </c>
+      <c r="H169">
+        <v>597.21</v>
+      </c>
+      <c r="I169" s="24">
+        <f t="shared" si="9"/>
+        <v>-4.5504550455045534E-3</v>
+      </c>
+    </row>
+    <row r="170" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G170" s="1">
+        <v>45713</v>
+      </c>
+      <c r="H170">
+        <v>594.24</v>
+      </c>
+      <c r="I170" s="24">
+        <f t="shared" si="9"/>
+        <v>-4.9731250313960196E-3</v>
+      </c>
+    </row>
+    <row r="171" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G171" s="1">
+        <v>45714</v>
+      </c>
+      <c r="H171">
+        <v>594.54</v>
+      </c>
+      <c r="I171" s="24">
+        <f t="shared" si="9"/>
+        <v>5.0484652665572227E-4</v>
+      </c>
+    </row>
+    <row r="172" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G172" s="1">
+        <v>45715</v>
+      </c>
+      <c r="H172">
+        <v>585.04999999999995</v>
+      </c>
+      <c r="I172" s="24">
+        <f t="shared" si="9"/>
+        <v>-1.5961920139940133E-2</v>
+      </c>
+    </row>
+    <row r="173" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G173" s="1">
+        <v>45716</v>
+      </c>
+      <c r="H173">
+        <v>594.17999999999995</v>
+      </c>
+      <c r="I173" s="24">
+        <f t="shared" si="9"/>
+        <v>1.5605503803093779E-2</v>
+      </c>
+    </row>
+    <row r="174" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G174" s="1">
+        <v>45719</v>
+      </c>
+      <c r="H174">
+        <v>583.77</v>
+      </c>
+      <c r="I174" s="24">
+        <f t="shared" si="9"/>
+        <v>-1.7519943451479336E-2</v>
+      </c>
+    </row>
+    <row r="175" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G175" s="1">
+        <v>45720</v>
+      </c>
+      <c r="H175">
+        <v>576.86</v>
+      </c>
+      <c r="I175" s="24">
+        <f t="shared" si="9"/>
+        <v>-1.1836853555338478E-2</v>
+      </c>
+    </row>
+    <row r="176" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G176" s="1">
+        <v>45721</v>
+      </c>
+      <c r="H176">
+        <v>583.05999999999995</v>
+      </c>
+      <c r="I176" s="24">
+        <f t="shared" si="9"/>
+        <v>1.0747841764032762E-2</v>
+      </c>
+    </row>
+    <row r="177" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G177" s="1">
+        <v>45722</v>
+      </c>
+      <c r="H177">
+        <v>572.71</v>
+      </c>
+      <c r="I177" s="24">
+        <f t="shared" si="9"/>
+        <v>-1.7751174836208805E-2</v>
+      </c>
+    </row>
+    <row r="178" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G178" s="1">
+        <v>45723</v>
+      </c>
+      <c r="H178">
+        <v>575.91999999999996</v>
+      </c>
+      <c r="I178" s="24">
+        <f t="shared" si="9"/>
+        <v>5.6049309423615856E-3</v>
+      </c>
+    </row>
+    <row r="179" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G179" s="1">
+        <v>45726</v>
+      </c>
+      <c r="H179">
+        <v>560.58000000000004</v>
+      </c>
+      <c r="I179" s="24">
+        <f t="shared" si="9"/>
+        <v>-2.6635643839421963E-2</v>
+      </c>
+    </row>
+    <row r="180" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G180" s="1">
+        <v>45727</v>
+      </c>
+      <c r="H180">
+        <v>555.91999999999996</v>
+      </c>
+      <c r="I180" s="24">
+        <f t="shared" si="9"/>
+        <v>-8.3128188661744096E-3</v>
+      </c>
+    </row>
+    <row r="181" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G181" s="1">
+        <v>45728</v>
+      </c>
+      <c r="H181">
+        <v>558.87</v>
+      </c>
+      <c r="I181" s="24">
+        <f t="shared" si="9"/>
+        <v>5.3065189235861343E-3</v>
+      </c>
+    </row>
+    <row r="182" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G182" s="1">
+        <v>45729</v>
+      </c>
+      <c r="H182">
+        <v>551.41999999999996</v>
+      </c>
+      <c r="I182" s="24">
+        <f t="shared" si="9"/>
+        <v>-1.3330470413513096E-2</v>
+      </c>
+    </row>
+    <row r="183" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G183" s="1">
+        <v>45730</v>
+      </c>
+      <c r="H183">
+        <v>562.80999999999995</v>
+      </c>
+      <c r="I183" s="24">
+        <f t="shared" si="9"/>
+        <v>2.0655761488520552E-2</v>
+      </c>
+    </row>
+    <row r="184" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G184" s="1">
+        <v>45733</v>
+      </c>
+      <c r="H184">
+        <v>567.15</v>
+      </c>
+      <c r="I184" s="24">
+        <f t="shared" si="9"/>
+        <v>7.7113057692650422E-3</v>
+      </c>
+    </row>
+    <row r="185" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G185" s="1">
+        <v>45734</v>
+      </c>
+      <c r="H185">
+        <v>561.02</v>
+      </c>
+      <c r="I185" s="24">
+        <f t="shared" si="9"/>
+        <v>-1.0808428105439472E-2</v>
+      </c>
+    </row>
+    <row r="186" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G186" s="1">
+        <v>45735</v>
+      </c>
+      <c r="H186">
+        <v>567.13</v>
+      </c>
+      <c r="I186" s="24">
+        <f t="shared" si="9"/>
+        <v>1.0890877330576476E-2</v>
+      </c>
+    </row>
+    <row r="187" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G187" s="1">
+        <v>45736</v>
+      </c>
+      <c r="H187">
+        <v>565.49</v>
+      </c>
+      <c r="I187" s="24">
+        <f t="shared" si="9"/>
+        <v>-2.8917532135489532E-3</v>
+      </c>
+    </row>
+    <row r="188" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G188" s="1">
+        <v>45737</v>
+      </c>
+      <c r="H188">
+        <v>563.98</v>
+      </c>
+      <c r="I188" s="24">
+        <f t="shared" si="9"/>
+        <v>-2.6702505791437181E-3</v>
+      </c>
+    </row>
+    <row r="189" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G189" s="1">
+        <v>45740</v>
+      </c>
+      <c r="H189">
+        <v>574.08000000000004</v>
+      </c>
+      <c r="I189" s="24">
+        <f t="shared" si="9"/>
+        <v>1.7908436469378453E-2</v>
+      </c>
+    </row>
+    <row r="190" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G190" s="1">
+        <v>45741</v>
+      </c>
+      <c r="H190">
+        <v>575.46</v>
+      </c>
+      <c r="I190" s="24">
+        <f t="shared" si="9"/>
+        <v>2.4038461538462563E-3</v>
+      </c>
+    </row>
+    <row r="191" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G191" s="1">
+        <v>45742</v>
+      </c>
+      <c r="H191">
+        <v>568.59</v>
+      </c>
+      <c r="I191" s="24">
+        <f t="shared" si="9"/>
+        <v>-1.1938275466583215E-2</v>
+      </c>
+    </row>
+    <row r="192" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G192" s="1">
+        <v>45743</v>
+      </c>
+      <c r="H192">
+        <v>567.08000000000004</v>
+      </c>
+      <c r="I192" s="24">
+        <f t="shared" si="9"/>
+        <v>-2.6556921507588926E-3</v>
+      </c>
+    </row>
+    <row r="193" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G193" s="1">
+        <v>45744</v>
+      </c>
+      <c r="H193">
+        <v>555.66</v>
+      </c>
+      <c r="I193" s="24">
+        <f t="shared" si="9"/>
+        <v>-2.0138252098469533E-2</v>
+      </c>
+    </row>
+    <row r="194" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G194" s="1">
+        <v>45747</v>
+      </c>
+      <c r="H194">
+        <v>559.39</v>
+      </c>
+      <c r="I194" s="24">
+        <f t="shared" si="9"/>
+        <v>6.712738005254959E-3</v>
+      </c>
+    </row>
+    <row r="195" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G195" s="1">
+        <v>45748</v>
+      </c>
+      <c r="H195">
+        <v>560.97</v>
+      </c>
+      <c r="I195" s="24">
+        <f t="shared" si="9"/>
+        <v>2.8245052646633795E-3</v>
+      </c>
+    </row>
+    <row r="196" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G196" s="1">
+        <v>45749</v>
+      </c>
+      <c r="H196">
+        <v>564.52</v>
+      </c>
+      <c r="I196" s="24">
+        <f t="shared" si="9"/>
+        <v>6.328324152806708E-3</v>
+      </c>
+    </row>
+    <row r="197" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G197" s="1">
+        <v>45750</v>
+      </c>
+      <c r="H197">
+        <v>536.70000000000005</v>
+      </c>
+      <c r="I197" s="24">
+        <f t="shared" ref="I197:I252" si="10">(H197/H196)-1</f>
+        <v>-4.9280804931623234E-2</v>
+      </c>
+    </row>
+    <row r="198" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G198" s="1">
+        <v>45751</v>
+      </c>
+      <c r="H198">
+        <v>505.28</v>
+      </c>
+      <c r="I198" s="24">
+        <f t="shared" si="10"/>
+        <v>-5.8542947643003718E-2</v>
+      </c>
+    </row>
+    <row r="199" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G199" s="1">
+        <v>45754</v>
+      </c>
+      <c r="H199">
+        <v>504.38</v>
+      </c>
+      <c r="I199" s="24">
+        <f t="shared" si="10"/>
+        <v>-1.7811906269790123E-3</v>
+      </c>
+    </row>
+    <row r="200" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G200" s="1">
+        <v>45755</v>
+      </c>
+      <c r="H200">
+        <v>496.48</v>
+      </c>
+      <c r="I200" s="24">
+        <f t="shared" si="10"/>
+        <v>-1.5662793925215079E-2</v>
+      </c>
+    </row>
+    <row r="201" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G201" s="1">
+        <v>45756</v>
+      </c>
+      <c r="H201">
+        <v>548.62</v>
+      </c>
+      <c r="I201" s="24">
+        <f t="shared" si="10"/>
+        <v>0.10501933612632941</v>
+      </c>
+    </row>
+    <row r="202" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G202" s="1">
+        <v>45757</v>
+      </c>
+      <c r="H202">
+        <v>524.58000000000004</v>
+      </c>
+      <c r="I202" s="24">
+        <f t="shared" si="10"/>
+        <v>-4.3819036856111659E-2</v>
+      </c>
+    </row>
+    <row r="203" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G203" s="1">
+        <v>45758</v>
+      </c>
+      <c r="H203">
+        <v>533.94000000000005</v>
+      </c>
+      <c r="I203" s="24">
+        <f t="shared" si="10"/>
+        <v>1.7842845705135613E-2</v>
+      </c>
+    </row>
+    <row r="204" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G204" s="1">
+        <v>45761</v>
+      </c>
+      <c r="H204">
+        <v>539.12</v>
+      </c>
+      <c r="I204" s="24">
+        <f t="shared" si="10"/>
+        <v>9.7014645840356462E-3</v>
+      </c>
+    </row>
+    <row r="205" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G205" s="1">
+        <v>45762</v>
+      </c>
+      <c r="H205">
+        <v>537.61</v>
+      </c>
+      <c r="I205" s="24">
+        <f t="shared" si="10"/>
+        <v>-2.8008606618192822E-3</v>
+      </c>
+    </row>
+    <row r="206" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G206" s="1">
+        <v>45763</v>
+      </c>
+      <c r="H206">
+        <v>525.66</v>
+      </c>
+      <c r="I206" s="24">
+        <f t="shared" si="10"/>
+        <v>-2.2228009151615602E-2</v>
+      </c>
+    </row>
+    <row r="207" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G207" s="1">
+        <v>45764</v>
+      </c>
+      <c r="H207">
+        <v>526.41</v>
+      </c>
+      <c r="I207" s="24">
+        <f t="shared" si="10"/>
+        <v>1.4267777650953661E-3</v>
+      </c>
+    </row>
+    <row r="208" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G208" s="1">
+        <v>45768</v>
+      </c>
+      <c r="H208">
+        <v>513.88</v>
+      </c>
+      <c r="I208" s="24">
+        <f t="shared" si="10"/>
+        <v>-2.3802739309663479E-2</v>
+      </c>
+    </row>
+    <row r="209" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G209" s="1">
+        <v>45769</v>
+      </c>
+      <c r="H209">
+        <v>527.25</v>
+      </c>
+      <c r="I209" s="24">
+        <f t="shared" si="10"/>
+        <v>2.6017747334007968E-2</v>
+      </c>
+    </row>
+    <row r="210" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G210" s="1">
+        <v>45770</v>
+      </c>
+      <c r="H210">
+        <v>535.41999999999996</v>
+      </c>
+      <c r="I210" s="24">
+        <f t="shared" si="10"/>
+        <v>1.5495495495495337E-2</v>
+      </c>
+    </row>
+    <row r="211" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G211" s="1">
+        <v>45771</v>
+      </c>
+      <c r="H211">
+        <v>546.69000000000005</v>
+      </c>
+      <c r="I211" s="24">
+        <f t="shared" si="10"/>
+        <v>2.1048896193642586E-2</v>
+      </c>
+    </row>
+    <row r="212" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G212" s="1">
+        <v>45772</v>
+      </c>
+      <c r="H212">
+        <v>550.64</v>
+      </c>
+      <c r="I212" s="24">
+        <f t="shared" si="10"/>
+        <v>7.2253013590881654E-3</v>
+      </c>
+    </row>
+    <row r="213" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G213" s="1">
+        <v>45775</v>
+      </c>
+      <c r="H213">
+        <v>550.85</v>
+      </c>
+      <c r="I213" s="24">
+        <f t="shared" si="10"/>
+        <v>3.813744006975206E-4</v>
+      </c>
+    </row>
+    <row r="214" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G214" s="1">
+        <v>45776</v>
+      </c>
+      <c r="H214">
+        <v>554.32000000000005</v>
+      </c>
+      <c r="I214" s="24">
+        <f t="shared" si="10"/>
+        <v>6.2993555414359026E-3</v>
+      </c>
+    </row>
+    <row r="215" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G215" s="1">
+        <v>45777</v>
+      </c>
+      <c r="H215">
+        <v>554.54</v>
+      </c>
+      <c r="I215" s="24">
+        <f t="shared" si="10"/>
+        <v>3.9688266705129038E-4</v>
+      </c>
+    </row>
+    <row r="216" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G216" s="1">
+        <v>45778</v>
+      </c>
+      <c r="H216">
+        <v>558.47</v>
+      </c>
+      <c r="I216" s="24">
+        <f t="shared" si="10"/>
+        <v>7.0869549536554111E-3</v>
+      </c>
+    </row>
+    <row r="217" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G217" s="1">
+        <v>45779</v>
+      </c>
+      <c r="H217">
+        <v>566.76</v>
+      </c>
+      <c r="I217" s="24">
+        <f t="shared" si="10"/>
+        <v>1.4844127706054033E-2</v>
+      </c>
+    </row>
+    <row r="218" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G218" s="1">
+        <v>45782</v>
+      </c>
+      <c r="H218">
+        <v>563.51</v>
+      </c>
+      <c r="I218" s="24">
+        <f t="shared" si="10"/>
+        <v>-5.7343496365304114E-3</v>
+      </c>
+    </row>
+    <row r="219" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G219" s="1">
+        <v>45783</v>
+      </c>
+      <c r="H219">
+        <v>558.79999999999995</v>
+      </c>
+      <c r="I219" s="24">
+        <f t="shared" si="10"/>
+        <v>-8.3583254955547082E-3</v>
+      </c>
+    </row>
+    <row r="220" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G220" s="1">
+        <v>45784</v>
+      </c>
+      <c r="H220">
+        <v>561.15</v>
+      </c>
+      <c r="I220" s="24">
+        <f t="shared" si="10"/>
+        <v>4.2054402290623294E-3</v>
+      </c>
+    </row>
+    <row r="221" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G221" s="1">
+        <v>45785</v>
+      </c>
+      <c r="H221">
+        <v>565.05999999999995</v>
+      </c>
+      <c r="I221" s="24">
+        <f t="shared" si="10"/>
+        <v>6.967833912500998E-3</v>
+      </c>
+    </row>
+    <row r="222" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G222" s="1">
+        <v>45786</v>
+      </c>
+      <c r="H222">
+        <v>564.34</v>
+      </c>
+      <c r="I222" s="24">
+        <f t="shared" si="10"/>
+        <v>-1.2742009698083478E-3</v>
+      </c>
+    </row>
+    <row r="223" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G223" s="1">
+        <v>45789</v>
+      </c>
+      <c r="H223">
+        <v>582.99</v>
+      </c>
+      <c r="I223" s="24">
+        <f t="shared" si="10"/>
+        <v>3.3047453662685466E-2</v>
+      </c>
+    </row>
+    <row r="224" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G224" s="1">
+        <v>45790</v>
+      </c>
+      <c r="H224">
+        <v>586.84</v>
+      </c>
+      <c r="I224" s="24">
+        <f t="shared" si="10"/>
+        <v>6.6038868591229427E-3</v>
+      </c>
+    </row>
+    <row r="225" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G225" s="1">
+        <v>45791</v>
+      </c>
+      <c r="H225">
+        <v>587.59</v>
+      </c>
+      <c r="I225" s="24">
+        <f t="shared" si="10"/>
+        <v>1.2780314906959411E-3</v>
+      </c>
+    </row>
+    <row r="226" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G226" s="1">
+        <v>45792</v>
+      </c>
+      <c r="H226">
+        <v>590.46</v>
+      </c>
+      <c r="I226" s="24">
+        <f t="shared" si="10"/>
+        <v>4.884358140880618E-3</v>
+      </c>
+    </row>
+    <row r="227" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G227" s="1">
+        <v>45793</v>
+      </c>
+      <c r="H227">
+        <v>594.20000000000005</v>
+      </c>
+      <c r="I227" s="24">
+        <f t="shared" si="10"/>
+        <v>6.3340446431596753E-3</v>
+      </c>
+    </row>
+    <row r="228" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G228" s="1">
+        <v>45796</v>
+      </c>
+      <c r="H228">
+        <v>594.85</v>
+      </c>
+      <c r="I228" s="24">
+        <f t="shared" si="10"/>
+        <v>1.0939077751599413E-3</v>
+      </c>
+    </row>
+    <row r="229" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G229" s="1">
+        <v>45797</v>
+      </c>
+      <c r="H229">
+        <v>592.85</v>
+      </c>
+      <c r="I229" s="24">
+        <f t="shared" si="10"/>
+        <v>-3.3621921492813511E-3</v>
+      </c>
+    </row>
+    <row r="230" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G230" s="1">
+        <v>45798</v>
+      </c>
+      <c r="H230">
+        <v>582.86</v>
+      </c>
+      <c r="I230" s="24">
+        <f t="shared" si="10"/>
+        <v>-1.6850805431390725E-2</v>
+      </c>
+    </row>
+    <row r="231" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G231" s="1">
+        <v>45799</v>
+      </c>
+      <c r="H231">
+        <v>583.09</v>
+      </c>
+      <c r="I231" s="24">
+        <f t="shared" si="10"/>
+        <v>3.9460590879469848E-4</v>
+      </c>
+    </row>
+    <row r="232" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G232" s="1">
+        <v>45800</v>
+      </c>
+      <c r="H232">
+        <v>579.11</v>
+      </c>
+      <c r="I232" s="24">
+        <f t="shared" si="10"/>
+        <v>-6.8257044367079356E-3</v>
+      </c>
+    </row>
+    <row r="233" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G233" s="1">
+        <v>45804</v>
+      </c>
+      <c r="H233">
+        <v>591.15</v>
+      </c>
+      <c r="I233" s="24">
+        <f t="shared" si="10"/>
+        <v>2.0790523389338844E-2</v>
+      </c>
+    </row>
+    <row r="234" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G234" s="1">
+        <v>45805</v>
+      </c>
+      <c r="H234">
+        <v>587.73</v>
+      </c>
+      <c r="I234" s="24">
+        <f t="shared" si="10"/>
+        <v>-5.7853336716569004E-3</v>
+      </c>
+    </row>
+    <row r="235" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G235" s="1">
+        <v>45806</v>
+      </c>
+      <c r="H235">
+        <v>590.04999999999995</v>
+      </c>
+      <c r="I235" s="24">
+        <f t="shared" si="10"/>
+        <v>3.9473908087046539E-3</v>
+      </c>
+    </row>
+    <row r="236" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G236" s="1">
+        <v>45807</v>
+      </c>
+      <c r="H236">
+        <v>589.39</v>
+      </c>
+      <c r="I236" s="24">
+        <f t="shared" si="10"/>
+        <v>-1.1185492754850479E-3</v>
+      </c>
+    </row>
+    <row r="237" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G237" s="1">
+        <v>45810</v>
+      </c>
+      <c r="H237">
+        <v>592.71</v>
+      </c>
+      <c r="I237" s="24">
+        <f t="shared" si="10"/>
+        <v>5.6329425338061956E-3</v>
+      </c>
+    </row>
+    <row r="238" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G238" s="1">
+        <v>45811</v>
+      </c>
+      <c r="H238">
+        <v>596.09</v>
+      </c>
+      <c r="I238" s="24">
+        <f t="shared" si="10"/>
+        <v>5.7026201683791911E-3</v>
+      </c>
+    </row>
+    <row r="239" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G239" s="1">
+        <v>45812</v>
+      </c>
+      <c r="H239">
+        <v>595.92999999999995</v>
+      </c>
+      <c r="I239" s="24">
+        <f t="shared" si="10"/>
+        <v>-2.6841584324532874E-4</v>
+      </c>
+    </row>
+    <row r="240" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G240" s="1">
+        <v>45813</v>
+      </c>
+      <c r="H240">
+        <v>593.04999999999995</v>
+      </c>
+      <c r="I240" s="24">
+        <f t="shared" si="10"/>
+        <v>-4.8327823737687181E-3</v>
+      </c>
+    </row>
+    <row r="241" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G241" s="1">
+        <v>45814</v>
+      </c>
+      <c r="H241">
+        <v>599.14</v>
+      </c>
+      <c r="I241" s="24">
+        <f t="shared" si="10"/>
+        <v>1.0268948655256738E-2</v>
+      </c>
+    </row>
+    <row r="242" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G242" s="1">
+        <v>45817</v>
+      </c>
+      <c r="H242">
+        <v>599.67999999999995</v>
+      </c>
+      <c r="I242" s="24">
+        <f t="shared" si="10"/>
+        <v>9.0129185165399583E-4</v>
+      </c>
+    </row>
+    <row r="243" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G243" s="1">
+        <v>45818</v>
+      </c>
+      <c r="H243">
+        <v>603.08000000000004</v>
+      </c>
+      <c r="I243" s="24">
+        <f t="shared" si="10"/>
+        <v>5.6696905016009325E-3</v>
+      </c>
+    </row>
+    <row r="244" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G244" s="1">
+        <v>45819</v>
+      </c>
+      <c r="H244">
+        <v>601.36</v>
+      </c>
+      <c r="I244" s="24">
+        <f t="shared" si="10"/>
+        <v>-2.852026265172114E-3</v>
+      </c>
+    </row>
+    <row r="245" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G245" s="1">
+        <v>45820</v>
+      </c>
+      <c r="H245">
+        <v>603.75</v>
+      </c>
+      <c r="I245" s="24">
+        <f t="shared" si="10"/>
+        <v>3.9743248636423534E-3</v>
+      </c>
+    </row>
+    <row r="246" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G246" s="1">
+        <v>45821</v>
+      </c>
+      <c r="H246">
+        <v>597</v>
+      </c>
+      <c r="I246" s="24">
+        <f t="shared" si="10"/>
+        <v>-1.1180124223602483E-2</v>
+      </c>
+    </row>
+    <row r="247" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G247" s="1">
+        <v>45824</v>
+      </c>
+      <c r="H247">
+        <v>602.67999999999995</v>
+      </c>
+      <c r="I247" s="24">
+        <f t="shared" si="10"/>
+        <v>9.5142378559462948E-3</v>
+      </c>
+    </row>
+    <row r="248" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G248" s="1">
+        <v>45825</v>
+      </c>
+      <c r="H248">
+        <v>597.53</v>
+      </c>
+      <c r="I248" s="24">
+        <f t="shared" si="10"/>
+        <v>-8.5451649299793653E-3</v>
+      </c>
+    </row>
+    <row r="249" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G249" s="1">
+        <v>45826</v>
+      </c>
+      <c r="H249">
+        <v>597.44000000000005</v>
+      </c>
+      <c r="I249" s="24">
+        <f t="shared" si="10"/>
+        <v>-1.506200525495105E-4</v>
+      </c>
+    </row>
+    <row r="250" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G250" s="1">
+        <v>45828</v>
+      </c>
+      <c r="H250">
+        <v>594.28</v>
+      </c>
+      <c r="I250" s="24">
+        <f t="shared" si="10"/>
+        <v>-5.2892340653456493E-3</v>
+      </c>
+    </row>
+    <row r="251" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G251" s="1">
+        <v>45831</v>
+      </c>
+      <c r="H251">
+        <v>600.15</v>
+      </c>
+      <c r="I251" s="24">
+        <f t="shared" si="10"/>
+        <v>9.8774988221039806E-3</v>
+      </c>
+    </row>
+    <row r="252" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G252" s="1">
+        <v>45832</v>
+      </c>
+      <c r="H252">
+        <v>606.78</v>
+      </c>
+      <c r="I252" s="24">
+        <f t="shared" si="10"/>
+        <v>1.104723819045228E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="G1:I1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C32CF0AB-DF2D-4488-BD6D-67412081C87B}">
   <dimension ref="A1:H251"/>
   <sheetViews>
